--- a/Data/159_df_metadata_merged_landcover.xlsx
+++ b/Data/159_df_metadata_merged_landcover.xlsx
@@ -439,19 +439,19 @@
         <v>38115</v>
       </c>
       <c r="B2">
-        <v>1.539</v>
+        <v>1.63</v>
       </c>
       <c r="C2">
-        <v>4.708</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>62.167</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>62.166</v>
+        <v>65.53999999999999</v>
       </c>
       <c r="O2">
-        <v>33.125</v>
+        <v>32.07</v>
       </c>
     </row>
     <row r="3">
@@ -486,19 +486,19 @@
         <v>38116</v>
       </c>
       <c r="B3">
-        <v>1.826</v>
+        <v>2.87</v>
       </c>
       <c r="C3">
-        <v>2.204</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>79.253</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.479</v>
+        <v>4.53</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>78.773</v>
+        <v>75.63</v>
       </c>
       <c r="O3">
-        <v>18.543</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="4">
@@ -533,19 +533,19 @@
         <v>38117</v>
       </c>
       <c r="B4">
-        <v>1.564</v>
+        <v>5.9</v>
       </c>
       <c r="C4">
-        <v>2.731</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>61.26</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>61.259</v>
+        <v>71.71000000000001</v>
       </c>
       <c r="O4">
-        <v>36.009</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -580,46 +580,46 @@
         <v>38118</v>
       </c>
       <c r="B5">
-        <v>4.582</v>
+        <v>5.13</v>
       </c>
       <c r="C5">
-        <v>6.388</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>71.483</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4.601</v>
+        <v>5.26</v>
       </c>
       <c r="G5">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.741</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="K5">
-        <v>0.57</v>
+        <v>9.67</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>66.88200000000001</v>
+        <v>62.15</v>
       </c>
       <c r="O5">
-        <v>20.38</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="6">
@@ -627,46 +627,46 @@
         <v>38119</v>
       </c>
       <c r="B6">
-        <v>4.824</v>
+        <v>6.35</v>
       </c>
       <c r="C6">
-        <v>5.082</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>78.821</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.062</v>
+        <v>2.68</v>
       </c>
       <c r="G6">
-        <v>0.543</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.543</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="K6">
-        <v>0.235</v>
+        <v>6.91</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>76.759</v>
+        <v>74.46000000000001</v>
       </c>
       <c r="O6">
-        <v>14.994</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="7">
@@ -674,34 +674,34 @@
         <v>38120</v>
       </c>
       <c r="B7">
-        <v>1.259</v>
+        <v>1.01</v>
       </c>
       <c r="C7">
-        <v>1.801</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>80.748</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.416</v>
+        <v>6.93</v>
       </c>
       <c r="G7">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>80.33199999999999</v>
+        <v>64.39</v>
       </c>
       <c r="O7">
-        <v>17.105</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="8">
@@ -721,19 +721,19 @@
         <v>38121</v>
       </c>
       <c r="B8">
-        <v>1.314</v>
+        <v>1.18</v>
       </c>
       <c r="C8">
-        <v>2.986</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>72.52800000000001</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.123</v>
+        <v>8.49</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>6.47</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>70.405</v>
+        <v>56.9</v>
       </c>
       <c r="O8">
-        <v>24.486</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="9">
@@ -768,19 +768,19 @@
         <v>38122</v>
       </c>
       <c r="B9">
-        <v>1.672</v>
+        <v>2.56</v>
       </c>
       <c r="C9">
-        <v>6.882</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>59.385</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>59.38500000000001</v>
+        <v>62.2</v>
       </c>
       <c r="O9">
-        <v>33.733</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="10">
@@ -815,28 +815,28 @@
         <v>38085</v>
       </c>
       <c r="B10">
-        <v>0.761</v>
+        <v>0.7608406139999999</v>
       </c>
       <c r="C10">
-        <v>3.372</v>
+        <v>3.372093023255814</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>86.977</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.023</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.023</v>
+        <v>3.023255813953488</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>86.977</v>
+        <v>86.97674418604652</v>
       </c>
       <c r="O10">
-        <v>6.628</v>
+        <v>6.627906976744185</v>
       </c>
     </row>
     <row r="11">
@@ -862,28 +862,28 @@
         <v>38086</v>
       </c>
       <c r="B11">
-        <v>0.824</v>
+        <v>0.8243069449999999</v>
       </c>
       <c r="C11">
-        <v>2.155</v>
+        <v>2.155172413793104</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68.858</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2.155</v>
+        <v>2.155172413793104</v>
       </c>
       <c r="G11">
-        <v>2.802</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.802</v>
+        <v>2.801724137931035</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>66.703</v>
+        <v>66.70258620689656</v>
       </c>
       <c r="O11">
-        <v>26.185</v>
+        <v>26.1853448275862</v>
       </c>
     </row>
     <row r="12">
@@ -909,28 +909,28 @@
         <v>38087</v>
       </c>
       <c r="B12">
-        <v>0.824</v>
+        <v>0.8243069449999999</v>
       </c>
       <c r="C12">
-        <v>2.155</v>
+        <v>2.155172413793104</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>68.858</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2.155</v>
+        <v>2.155172413793104</v>
       </c>
       <c r="G12">
-        <v>2.802</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.802</v>
+        <v>2.801724137931035</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>66.703</v>
+        <v>66.70258620689656</v>
       </c>
       <c r="O12">
-        <v>26.185</v>
+        <v>26.1853448275862</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         <v>38088</v>
       </c>
       <c r="B13">
-        <v>2.803</v>
+        <v>2.803306679</v>
       </c>
       <c r="C13">
-        <v>1.201</v>
+        <v>1.201011378002528</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>67.25700000000001</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.695</v>
+        <v>0.695322376738306</v>
       </c>
       <c r="G13">
-        <v>11.283</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.283</v>
+        <v>11.28318584070796</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>66.56100000000001</v>
+        <v>66.56131479140328</v>
       </c>
       <c r="O13">
-        <v>20.259</v>
+        <v>20.25916561314791</v>
       </c>
     </row>
     <row r="14">
@@ -1003,7 +1003,7 @@
         <v>38089</v>
       </c>
       <c r="B14">
-        <v>0.529</v>
+        <v>0.39</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>97.30200000000001</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>24.789</v>
+        <v>65.05022430368274</v>
       </c>
       <c r="G14">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>72.51299999999999</v>
+        <v>12.0905693336082</v>
       </c>
       <c r="O14">
-        <v>1.518</v>
+        <v>22.85920329722965</v>
       </c>
     </row>
     <row r="15">
@@ -1050,7 +1050,7 @@
         <v>38090</v>
       </c>
       <c r="B15">
-        <v>41.746</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1059,37 +1059,37 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>95.27200000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>68.892</v>
+        <v>54.02272694889505</v>
       </c>
       <c r="G15">
-        <v>1.666</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.419</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.094</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>26.38</v>
+        <v>18.75053677772488</v>
       </c>
       <c r="O15">
-        <v>0.953</v>
+        <v>27.22673627338009</v>
       </c>
     </row>
     <row r="16">
@@ -1097,7 +1097,7 @@
         <v>38091</v>
       </c>
       <c r="B16">
-        <v>0.989</v>
+        <v>0.88</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>88.00700000000001</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>70.604</v>
+        <v>81.1697936018673</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.403</v>
+        <v>6.588183979417186</v>
       </c>
       <c r="O16">
-        <v>11.993</v>
+        <v>12.24202241871552</v>
       </c>
     </row>
     <row r="17">
@@ -1144,46 +1144,46 @@
         <v>38092</v>
       </c>
       <c r="B17">
-        <v>101.919</v>
+        <v>0.77</v>
       </c>
       <c r="C17">
-        <v>0.916</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>93.57599999999999</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>47.543</v>
+        <v>90.50881618837407</v>
       </c>
       <c r="G17">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.774</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.715</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6879999999999999</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>46.033</v>
+        <v>1.222329359985476</v>
       </c>
       <c r="O17">
-        <v>0.766</v>
+        <v>8.268854451640443</v>
       </c>
     </row>
     <row r="18">
@@ -1191,7 +1191,7 @@
         <v>38093</v>
       </c>
       <c r="B18">
-        <v>0.805</v>
+        <v>0.86</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>83.721</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>47.951</v>
+        <v>84.64035981020712</v>
       </c>
       <c r="G18">
-        <v>0.332</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.332</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5384631783027198</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>35.769</v>
+        <v>1.657482020877133</v>
       </c>
       <c r="O18">
-        <v>15.947</v>
+        <v>13.16369499061303</v>
       </c>
     </row>
     <row r="19">
@@ -1238,34 +1238,34 @@
         <v>38095</v>
       </c>
       <c r="B19">
-        <v>7.717</v>
+        <v>7.8774422905</v>
       </c>
       <c r="C19">
-        <v>0.425</v>
+        <v>0.3153942496025957</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>64.872</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3.872</v>
+        <v>4.260536067712624</v>
       </c>
       <c r="G19">
-        <v>4.051</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1.399</v>
+        <v>1.542378801638775</v>
       </c>
       <c r="I19">
-        <v>2.652</v>
+        <v>2.810817472658957</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.739</v>
+        <v>12.97747665169011</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>61</v>
+        <v>58.89757222081168</v>
       </c>
       <c r="O19">
-        <v>18.912</v>
+        <v>19.19582453588525</v>
       </c>
     </row>
     <row r="20">
@@ -1285,7 +1285,7 @@
         <v>38096</v>
       </c>
       <c r="B20">
-        <v>3.553</v>
+        <v>2.6435146</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>82.02800000000001</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2.14</v>
+        <v>2.397611119681352</v>
       </c>
       <c r="G20">
-        <v>10.773</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.365</v>
+        <v>0.5106837692517379</v>
       </c>
       <c r="I20">
-        <v>10.409</v>
+        <v>8.158602566446959</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.335</v>
+        <v>3.771278963240833</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>79.88800000000001</v>
+        <v>77.6717971975642</v>
       </c>
       <c r="O20">
-        <v>4.864</v>
+        <v>7.490028615692156</v>
       </c>
     </row>
     <row r="21">
@@ -1332,46 +1332,46 @@
         <v>38097</v>
       </c>
       <c r="B21">
-        <v>33.858</v>
+        <v>748.0494519262476</v>
       </c>
       <c r="C21">
-        <v>0.248</v>
+        <v>1.827782781311098</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.220591080837085</v>
       </c>
       <c r="E21">
-        <v>64.215</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>17.536</v>
+        <v>9.694266426314282</v>
       </c>
       <c r="G21">
-        <v>4.322</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.491</v>
+        <v>4.504558835785655</v>
       </c>
       <c r="I21">
-        <v>2.831</v>
+        <v>4.128770564392973</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.843</v>
+        <v>1.411713408991466</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5430741028603187</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>46.678</v>
+        <v>68.41366456025133</v>
       </c>
       <c r="O21">
-        <v>29.372</v>
+        <v>9.25557823925579</v>
       </c>
     </row>
     <row r="22">
@@ -1379,7 +1379,7 @@
         <v>38098</v>
       </c>
       <c r="B22">
-        <v>1.331</v>
+        <v>1.92389898360034</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1388,25 +1388,25 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>59.792</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2.075</v>
+        <v>2.468366603694047</v>
       </c>
       <c r="G22">
-        <v>0.324</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.324</v>
+        <v>0.2338942968605873</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.744</v>
+        <v>4.260144856824048</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>57.717</v>
+        <v>69.10426905637277</v>
       </c>
       <c r="O22">
-        <v>33.139</v>
+        <v>23.93332518624855</v>
       </c>
     </row>
     <row r="23">
@@ -1426,46 +1426,46 @@
         <v>38099</v>
       </c>
       <c r="B23">
-        <v>3.98</v>
+        <v>0.975</v>
       </c>
       <c r="C23">
-        <v>3.858</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>79.324</v>
+        <v>73.5</v>
       </c>
       <c r="F23">
-        <v>31.276</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1.384</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.226</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.454</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>48.048</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.616</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="24">
@@ -1473,7 +1473,7 @@
         <v>38100</v>
       </c>
       <c r="B24">
-        <v>0.455</v>
+        <v>3.933</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>85.119</v>
+        <v>86.2</v>
       </c>
       <c r="F24">
-        <v>62.698</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>3.373</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.373</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.421</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.508</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="25">
@@ -1520,7 +1520,7 @@
         <v>38101</v>
       </c>
       <c r="B25">
-        <v>0.531</v>
+        <v>2.36</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>87.648</v>
+        <v>78</v>
       </c>
       <c r="F25">
-        <v>70.22</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1.184</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.184</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.428</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>11.168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1567,34 +1567,34 @@
         <v>38102</v>
       </c>
       <c r="B26">
-        <v>1.611</v>
+        <v>0.806</v>
       </c>
       <c r="C26">
-        <v>3.324</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>80.056</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F26">
-        <v>2.873</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1.859</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1.859</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>77.18300000000001</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>14.535</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="27">
@@ -1614,7 +1614,7 @@
         <v>38103</v>
       </c>
       <c r="B27">
-        <v>0.999</v>
+        <v>1.23162043764</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1623,37 +1623,37 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4.649</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.732</v>
+        <v>0.803819074240935</v>
       </c>
       <c r="G27">
-        <v>34.002</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>5.386537440635712</v>
       </c>
       <c r="I27">
-        <v>34.002</v>
+        <v>43.80864582386145</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>2.461</v>
+        <v>2.224099256787971</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>9.563506450550523</v>
       </c>
       <c r="M27">
-        <v>15.861</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2.917</v>
+        <v>2.141897325977212</v>
       </c>
       <c r="O27">
-        <v>43.026</v>
+        <v>36.07149462794619</v>
       </c>
     </row>
     <row r="28">
@@ -1661,7 +1661,7 @@
         <v>38104</v>
       </c>
       <c r="B28">
-        <v>0.322</v>
+        <v>0.5437174541199999</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1670,25 +1670,25 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>48.611</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>25.556</v>
+        <v>33.77815969090928</v>
       </c>
       <c r="G28">
-        <v>21.667</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>21.667</v>
+        <v>26.96750672411539</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1.111</v>
+        <v>5.391421551372581</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>23.056</v>
+        <v>16.48256139671781</v>
       </c>
       <c r="O28">
-        <v>28.611</v>
+        <v>17.38035063688494</v>
       </c>
     </row>
     <row r="29">
@@ -1708,7 +1708,7 @@
         <v>38105</v>
       </c>
       <c r="B29">
-        <v>3.977</v>
+        <v>10.0280573511222</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1717,25 +1717,25 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>75.256</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>30.039</v>
+        <v>32.40308010718918</v>
       </c>
       <c r="G29">
-        <v>6.067</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>6.067</v>
+        <v>13.4664149626755</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.341</v>
+        <v>0.7225197908535285</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>45.217</v>
+        <v>40.97664839727068</v>
       </c>
       <c r="O29">
-        <v>18.337</v>
+        <v>12.43133674201112</v>
       </c>
     </row>
     <row r="30">
@@ -1755,7 +1755,7 @@
         <v>38106</v>
       </c>
       <c r="B30">
-        <v>0.533</v>
+        <v>0.41265682</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.2727278322941567</v>
       </c>
       <c r="G30">
-        <v>79.01900000000001</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>79.01900000000001</v>
+        <v>73.29068255796669</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1.354</v>
+        <v>1.137116793562263</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>19.628</v>
+        <v>25.29947281617689</v>
       </c>
     </row>
     <row r="31">
@@ -1802,7 +1802,7 @@
         <v>38107</v>
       </c>
       <c r="B31">
-        <v>1.486</v>
+        <v>6.423770221119001</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>68.72</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>66.002</v>
+        <v>54.1436419100796</v>
       </c>
       <c r="G31">
-        <v>8.635</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.242</v>
+        <v>2.760061364229727</v>
       </c>
       <c r="I31">
-        <v>8.394</v>
+        <v>13.83419642063716</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2.114</v>
+        <v>4.533541235839373</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1838,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2.717</v>
+        <v>10.28377091428598</v>
       </c>
       <c r="O31">
-        <v>20.531</v>
+        <v>14.44478815492817</v>
       </c>
     </row>
     <row r="32">
@@ -1849,7 +1849,7 @@
         <v>38108</v>
       </c>
       <c r="B32">
-        <v>0.714</v>
+        <v>0.495613743</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>82.41200000000001</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>69.34699999999999</v>
+        <v>66.16502621881492</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1.382</v>
+        <v>1.17711021584807</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1885,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>13.065</v>
+        <v>9.064490368661952</v>
       </c>
       <c r="O32">
-        <v>16.206</v>
+        <v>23.59337319667506</v>
       </c>
     </row>
     <row r="33">
@@ -1896,7 +1896,7 @@
         <v>38109</v>
       </c>
       <c r="B33">
-        <v>0.019</v>
+        <v>1.04678928395</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1905,37 +1905,37 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>45.455</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>45.455</v>
+        <v>24.05474528835809</v>
       </c>
       <c r="G33">
-        <v>13.636</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5.071789883028254</v>
       </c>
       <c r="I33">
-        <v>13.636</v>
+        <v>28.12566032382719</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>31.818</v>
+        <v>17.37848318369767</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>4.545</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>13.833372410308</v>
       </c>
       <c r="O33">
-        <v>4.545</v>
+        <v>11.53594891078078</v>
       </c>
     </row>
     <row r="34">
@@ -1943,7 +1943,7 @@
         <v>38110</v>
       </c>
       <c r="B34">
-        <v>1.406</v>
+        <v>2.2930604638167</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1952,37 +1952,37 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>52.484</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>45.669</v>
+        <v>47.57292436084673</v>
       </c>
       <c r="G34">
-        <v>6.752</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2.237184793401103</v>
       </c>
       <c r="I34">
-        <v>6.752</v>
+        <v>10.92575664139692</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>5.287</v>
+        <v>6.137070645131025</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>6.815</v>
+        <v>7.73203601464967</v>
       </c>
       <c r="O34">
-        <v>34.968</v>
+        <v>25.39502754457455</v>
       </c>
     </row>
     <row r="35">
@@ -1990,7 +1990,7 @@
         <v>38111</v>
       </c>
       <c r="B35">
-        <v>1.206</v>
+        <v>0.7640690300599999</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>88.657</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>46.343</v>
+        <v>51.43068378640364</v>
       </c>
       <c r="G35">
-        <v>0.597</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.597</v>
+        <v>1.531275256514616</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>4.328</v>
+        <v>7.82990772382203</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>42.314</v>
+        <v>29.04830513580311</v>
       </c>
       <c r="O35">
-        <v>6.418</v>
+        <v>10.1598280974566</v>
       </c>
     </row>
     <row r="36">
@@ -2037,7 +2037,7 @@
         <v>38112</v>
       </c>
       <c r="B36">
-        <v>0.621</v>
+        <v>0.3477477073200001</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>75.36199999999999</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>64.05800000000001</v>
+        <v>69.22747921339192</v>
       </c>
       <c r="G36">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.87</v>
+        <v>1.522974814360596</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3.478</v>
+        <v>3.344115755535039</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>11.304</v>
+        <v>5.71547683324062</v>
       </c>
       <c r="O36">
-        <v>20.29</v>
+        <v>20.18995338347181</v>
       </c>
     </row>
     <row r="37">
@@ -2084,7 +2084,7 @@
         <v>38113</v>
       </c>
       <c r="B37">
-        <v>0.208</v>
+        <v>0.4646215544000001</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>75.536</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>68.67</v>
+        <v>52.44824281014889</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2105,25 +2105,25 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2.905590554754512</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>11.588</v>
+        <v>7.577846887768061</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1.482539054585023</v>
       </c>
       <c r="M37">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>6.867</v>
+        <v>20.67041584500367</v>
       </c>
       <c r="O37">
-        <v>12.446</v>
+        <v>14.91536484773983</v>
       </c>
     </row>
     <row r="38">
@@ -2131,7 +2131,7 @@
         <v>38114</v>
       </c>
       <c r="B38">
-        <v>0.669</v>
+        <v>0.40723665192</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2140,37 +2140,37 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>75.968</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>25.367</v>
+        <v>46.30612694385988</v>
       </c>
       <c r="G38">
-        <v>3.872</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>3.872</v>
+        <v>0.5811948430577305</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>12.55</v>
+        <v>10.32071457759076</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>5.040570366940464</v>
       </c>
       <c r="M38">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>50.601</v>
+        <v>27.80631592616204</v>
       </c>
       <c r="O38">
-        <v>2.67</v>
+        <v>9.945077342389128</v>
       </c>
     </row>
     <row r="39">
@@ -2178,46 +2178,46 @@
         <v>38123</v>
       </c>
       <c r="B39">
-        <v>3.857</v>
+        <v>3.423170339</v>
       </c>
       <c r="C39">
-        <v>3.696</v>
+        <v>3.056552541599946</v>
       </c>
       <c r="D39">
-        <v>4.055</v>
+        <v>4.91649504211248</v>
       </c>
       <c r="E39">
-        <v>62.858</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>2.061</v>
+        <v>1.978093763799698</v>
       </c>
       <c r="G39">
-        <v>9.185</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2.195</v>
+        <v>3.73539243850056</v>
       </c>
       <c r="I39">
-        <v>6.989</v>
+        <v>7.19448130273134</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1.03</v>
+        <v>1.508599189810869</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1.646630299340181</v>
       </c>
       <c r="M39">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>60.798</v>
+        <v>53.98413052795502</v>
       </c>
       <c r="O39">
-        <v>18.728</v>
+        <v>21.97962489414991</v>
       </c>
     </row>
     <row r="40">
@@ -2225,46 +2225,46 @@
         <v>38124</v>
       </c>
       <c r="B40">
-        <v>3.413</v>
+        <v>37.27859279286</v>
       </c>
       <c r="C40">
-        <v>6.665</v>
+        <v>2.944970096109076</v>
       </c>
       <c r="D40">
-        <v>9.744999999999999</v>
+        <v>2.679134393080659</v>
       </c>
       <c r="E40">
-        <v>54.936</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>9.340999999999999</v>
+        <v>9.862456853532791</v>
       </c>
       <c r="G40">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1.257598222939876</v>
       </c>
       <c r="I40">
-        <v>0.126</v>
+        <v>0.8286527472119755</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>0.8567333154838687</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.03621381331375166</v>
       </c>
       <c r="M40">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>45.594</v>
+        <v>44.727060419495</v>
       </c>
       <c r="O40">
-        <v>25.802</v>
+        <v>36.807180138833</v>
       </c>
     </row>
     <row r="41">
@@ -2272,46 +2272,46 @@
         <v>38125</v>
       </c>
       <c r="B41">
-        <v>5.122</v>
+        <v>13.51347388852</v>
       </c>
       <c r="C41">
-        <v>6.308</v>
+        <v>4.741865232332051</v>
       </c>
       <c r="D41">
-        <v>10.765</v>
+        <v>6.987796089961732</v>
       </c>
       <c r="E41">
-        <v>59.613</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>8.343</v>
+        <v>9.30492768767775</v>
       </c>
       <c r="G41">
-        <v>2.607</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1.077</v>
+        <v>2.087394635361917</v>
       </c>
       <c r="I41">
-        <v>1.531</v>
+        <v>2.129759174985319</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.538</v>
+        <v>0.6855124800936407</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.2186552491517493</v>
       </c>
       <c r="M41">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>51.27</v>
+        <v>58.68588500279812</v>
       </c>
       <c r="O41">
-        <v>20.067</v>
+        <v>15.15820444763771</v>
       </c>
     </row>
     <row r="42">
@@ -2319,46 +2319,46 @@
         <v>38126</v>
       </c>
       <c r="B42">
-        <v>2.958</v>
+        <v>10.58846657648</v>
       </c>
       <c r="C42">
-        <v>2.506</v>
+        <v>4.193554343235347</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.6119208058315428</v>
       </c>
       <c r="E42">
-        <v>64.19</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>21.008</v>
+        <v>17.22272764453717</v>
       </c>
       <c r="G42">
-        <v>10.169</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4.516</v>
+        <v>4.236464890925911</v>
       </c>
       <c r="I42">
-        <v>5.653</v>
+        <v>2.7995471880551</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.204</v>
+        <v>0.9732953422067653</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>0.5794236545665682</v>
       </c>
       <c r="M42">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>43.181</v>
+        <v>54.44889234279097</v>
       </c>
       <c r="O42">
-        <v>22.727</v>
+        <v>14.93417378785062</v>
       </c>
     </row>
     <row r="43">
@@ -2366,34 +2366,34 @@
         <v>38127</v>
       </c>
       <c r="B43">
-        <v>4.879</v>
+        <v>1.08319598</v>
       </c>
       <c r="C43">
-        <v>0.725</v>
+        <v>1.450125396514119</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>80.753</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>22.641</v>
+        <v>5.980637040399652</v>
       </c>
       <c r="G43">
-        <v>1.591</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1.078</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>9.191000000000001</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>58.113</v>
+        <v>56.21145861342654</v>
       </c>
       <c r="O43">
-        <v>7.741</v>
+        <v>36.35777894965969</v>
       </c>
     </row>
     <row r="44">
@@ -2413,46 +2413,46 @@
         <v>38128</v>
       </c>
       <c r="B44">
-        <v>6.107</v>
+        <v>7.790498073529999</v>
       </c>
       <c r="C44">
-        <v>4.465</v>
+        <v>3.513222099751875</v>
       </c>
       <c r="D44">
-        <v>18.411</v>
+        <v>18.49625872954079</v>
       </c>
       <c r="E44">
-        <v>62.305</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>9.606999999999999</v>
+        <v>5.7139071956448</v>
       </c>
       <c r="G44">
-        <v>4.973</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>2.395</v>
+        <v>5.344393555717073</v>
       </c>
       <c r="I44">
-        <v>2.578</v>
+        <v>4.493629227885489</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1.507</v>
+        <v>3.750725232739829</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.6007318089072342</v>
       </c>
       <c r="M44">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>52.697</v>
+        <v>51.25958409088646</v>
       </c>
       <c r="O44">
-        <v>8.311</v>
+        <v>6.827548058926451</v>
       </c>
     </row>
     <row r="45">
@@ -2460,46 +2460,46 @@
         <v>38129</v>
       </c>
       <c r="B45">
-        <v>2.307</v>
+        <v>1.3542690192</v>
       </c>
       <c r="C45">
-        <v>6.294</v>
+        <v>4.714329213387355</v>
       </c>
       <c r="D45">
-        <v>1.304</v>
+        <v>0.7125563579458127</v>
       </c>
       <c r="E45">
-        <v>71.91800000000001</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>9.683</v>
+        <v>10.96615870956933</v>
       </c>
       <c r="G45">
-        <v>5.214</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>4.916</v>
+        <v>4.330321314936567</v>
       </c>
       <c r="I45">
-        <v>0.298</v>
+        <v>0.4651956081607452</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>3.389282288028286</v>
       </c>
       <c r="M45">
-        <v>1.899</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>62.235</v>
+        <v>51.83009352267697</v>
       </c>
       <c r="O45">
-        <v>12.961</v>
+        <v>23.59206298529494</v>
       </c>
     </row>
     <row r="46">
@@ -2507,46 +2507,46 @@
         <v>38130</v>
       </c>
       <c r="B46">
-        <v>6.644</v>
+        <v>9.270945602199999</v>
       </c>
       <c r="C46">
-        <v>1.414</v>
+        <v>1.516096836623072</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>84.267</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>24.345</v>
+        <v>26.02474585362097</v>
       </c>
       <c r="G46">
-        <v>4.189</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>2.776</v>
+        <v>2.357011920641038</v>
       </c>
       <c r="I46">
-        <v>1.414</v>
+        <v>3.685593613222334</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2.399</v>
+        <v>4.107868132778461</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.7495651790202454</v>
       </c>
       <c r="M46">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>59.923</v>
+        <v>55.40454670320899</v>
       </c>
       <c r="O46">
-        <v>7.639</v>
+        <v>6.154571760884882</v>
       </c>
     </row>
     <row r="47">
@@ -2554,34 +2554,34 @@
         <v>38131</v>
       </c>
       <c r="B47">
-        <v>2.131</v>
+        <v>0.9836791480400001</v>
       </c>
       <c r="C47">
-        <v>6.452</v>
+        <v>7.728353310271517</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>62.46</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.935</v>
+        <v>1.555385211782272</v>
       </c>
       <c r="G47">
-        <v>22.258</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>10.363</v>
+        <v>1.484086733879446</v>
       </c>
       <c r="I47">
-        <v>11.895</v>
+        <v>7.053942480966204</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.202</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>60.52500000000001</v>
+        <v>62.64452552723444</v>
       </c>
       <c r="O47">
-        <v>8.629</v>
+        <v>19.53370673586612</v>
       </c>
     </row>
     <row r="48">
@@ -2601,46 +2601,46 @@
         <v>38132</v>
       </c>
       <c r="B48">
-        <v>30.723</v>
+        <v>30.14178047999</v>
       </c>
       <c r="C48">
-        <v>2.278</v>
+        <v>2.308815169236582</v>
       </c>
       <c r="D48">
-        <v>2.491</v>
+        <v>1.428651287822474</v>
       </c>
       <c r="E48">
-        <v>53.558</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>9.563000000000001</v>
+        <v>9.274604012380257</v>
       </c>
       <c r="G48">
-        <v>3.561</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1.975</v>
+        <v>1.265115344639808</v>
       </c>
       <c r="I48">
-        <v>1.586</v>
+        <v>0.9052086129455166</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0.922</v>
+        <v>0.7351810227239552</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.02985888642502312</v>
       </c>
       <c r="M48">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>43.995</v>
+        <v>43.22682850022642</v>
       </c>
       <c r="O48">
-        <v>37.162</v>
+        <v>40.82573716359998</v>
       </c>
     </row>
     <row r="49">
@@ -2648,46 +2648,46 @@
         <v>38133</v>
       </c>
       <c r="B49">
-        <v>2.012</v>
+        <v>1.116484912</v>
       </c>
       <c r="C49">
-        <v>6.207</v>
+        <v>6.172174765582501</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>52.44</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.385</v>
+        <v>0.742293237546232</v>
       </c>
       <c r="G49">
-        <v>19.349</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>16.781</v>
+        <v>1.668780455494413</v>
       </c>
       <c r="I49">
-        <v>2.568</v>
+        <v>0.4030506773207518</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>7.663</v>
+        <v>2.722718388154985</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1.113</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>52.054</v>
+        <v>63.38298801838174</v>
       </c>
       <c r="O49">
-        <v>13.228</v>
+        <v>24.90799445751937</v>
       </c>
     </row>
     <row r="50">
@@ -2695,7 +2695,7 @@
         <v>38134</v>
       </c>
       <c r="B50">
-        <v>1.375</v>
+        <v>1.3090081168</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2704,25 +2704,25 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>68.53</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.759</v>
+        <v>1.430497394147251</v>
       </c>
       <c r="G50">
-        <v>9.548</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>4.962</v>
+        <v>1.653267059405602</v>
       </c>
       <c r="I50">
-        <v>4.585</v>
+        <v>4.124657999217686</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1.884</v>
+        <v>1.63639265678234</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>66.771</v>
+        <v>63.98957793689365</v>
       </c>
       <c r="O50">
-        <v>20.038</v>
+        <v>27.16560695355346</v>
       </c>
     </row>
     <row r="51">
@@ -2742,7 +2742,7 @@
         <v>38135</v>
       </c>
       <c r="B51">
-        <v>3.866</v>
+        <v>1.9334168109</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2751,25 +2751,25 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>88.196</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>7.288</v>
+        <v>2.453488545903281</v>
       </c>
       <c r="G51">
-        <v>4.449</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>4.449</v>
+        <v>6.639165919957398</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2.101</v>
+        <v>3.661158768297332</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>80.908</v>
+        <v>76.30700392603067</v>
       </c>
       <c r="O51">
-        <v>5.254</v>
+        <v>10.93918283981131</v>
       </c>
     </row>
     <row r="52">
@@ -2789,7 +2789,7 @@
         <v>38136</v>
       </c>
       <c r="B52">
-        <v>1.447</v>
+        <v>0.77017037452</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2798,25 +2798,25 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>73.65900000000001</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>5.364</v>
+        <v>11.28985193103426</v>
       </c>
       <c r="G52">
-        <v>14.541</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>14.482</v>
+        <v>10.60910836007211</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1.847</v>
+        <v>3.505856745895753</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>68.29599999999999</v>
+        <v>52.27544622849485</v>
       </c>
       <c r="O52">
-        <v>9.952</v>
+        <v>22.31973673450303</v>
       </c>
     </row>
     <row r="53">
@@ -2836,46 +2836,46 @@
         <v>38137</v>
       </c>
       <c r="B53">
-        <v>1.168</v>
+        <v>750.6681626372477</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1.821842289135255</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.219821547433524</v>
       </c>
       <c r="E53">
-        <v>82.474</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>11.193</v>
+        <v>9.677745526743548</v>
       </c>
       <c r="G53">
-        <v>2.504</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0.221</v>
+        <v>4.488844653329641</v>
       </c>
       <c r="I53">
-        <v>2.283</v>
+        <v>4.115897433252991</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1.411089836888257</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.5411795853613603</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>71.28100000000001</v>
+        <v>68.38260720691855</v>
       </c>
       <c r="O53">
-        <v>15.022</v>
+        <v>9.340971920936861</v>
       </c>
     </row>
     <row r="54">
@@ -2883,46 +2883,46 @@
         <v>38138</v>
       </c>
       <c r="B54">
-        <v>6.983</v>
+        <v>792.1495524514487</v>
       </c>
       <c r="C54">
-        <v>0.952</v>
+        <v>1.887822822309372</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.2341116259500335</v>
       </c>
       <c r="E54">
-        <v>75.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>4.513</v>
+        <v>9.782311127552351</v>
       </c>
       <c r="G54">
-        <v>6.158</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0.977</v>
+        <v>4.476847110882324</v>
       </c>
       <c r="I54">
-        <v>5.181</v>
+        <v>4.110524835678621</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>3.784</v>
+        <v>1.528476897848416</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.5327229986989918</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>70.916</v>
+        <v>68.32522652584537</v>
       </c>
       <c r="O54">
-        <v>13.676</v>
+        <v>9.121956055234504</v>
       </c>
     </row>
     <row r="55">
@@ -2930,7 +2930,7 @@
         <v>38139</v>
       </c>
       <c r="B55">
-        <v>3.212</v>
+        <v>4.137274314400001</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2939,25 +2939,25 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>71.09399999999999</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>6.265</v>
+        <v>5.917697701306668</v>
       </c>
       <c r="G55">
-        <v>0.592</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0.592</v>
+        <v>0.5762332441197436</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1.344</v>
+        <v>1.505208871049471</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -2966,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>64.82900000000001</v>
+        <v>56.783582109196</v>
       </c>
       <c r="O55">
-        <v>26.97</v>
+        <v>35.21727807432811</v>
       </c>
     </row>
     <row r="56">
@@ -2977,46 +2977,46 @@
         <v>38140</v>
       </c>
       <c r="B56">
-        <v>19.113</v>
+        <v>40.07950830633002</v>
       </c>
       <c r="C56">
-        <v>0.217</v>
+        <v>1.627648755104537</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>86.756</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>9.295</v>
+        <v>3.980286252034801</v>
       </c>
       <c r="G56">
-        <v>3.212</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0.199</v>
+        <v>7.16071661374829</v>
       </c>
       <c r="I56">
-        <v>3.012</v>
+        <v>8.249987128978258</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0.909</v>
+        <v>2.006204291615541</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>0.4468617694387073</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>77.461</v>
+        <v>69.8024106188486</v>
       </c>
       <c r="O56">
-        <v>8.906000000000001</v>
+        <v>6.725884570231246</v>
       </c>
     </row>
     <row r="57">
@@ -3024,34 +3024,34 @@
         <v>38141</v>
       </c>
       <c r="B57">
-        <v>19.113</v>
+        <v>2.0609848609</v>
       </c>
       <c r="C57">
-        <v>0.217</v>
+        <v>0.08609864311303635</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>86.756</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>9.295</v>
+        <v>4.114305330849022</v>
       </c>
       <c r="G57">
-        <v>3.212</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>3.012</v>
+        <v>0.6188982870271988</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0.909</v>
+        <v>0.7860319746805764</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>77.461</v>
+        <v>68.67137390722792</v>
       </c>
       <c r="O57">
-        <v>8.906000000000001</v>
+        <v>25.72329185710225</v>
       </c>
     </row>
     <row r="58">
@@ -3071,34 +3071,34 @@
         <v>38142</v>
       </c>
       <c r="B58">
-        <v>17.299</v>
+        <v>86.17031019414891</v>
       </c>
       <c r="C58">
-        <v>0.03</v>
+        <v>0.1329253657575641</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>59.632</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.579</v>
+        <v>3.054656121648415</v>
       </c>
       <c r="G58">
-        <v>5.026</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0.165</v>
+        <v>0.3224334453177654</v>
       </c>
       <c r="I58">
-        <v>4.861</v>
+        <v>5.057268763430661</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>2.568</v>
+        <v>2.688762131388175</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>58.054</v>
+        <v>69.58991742614349</v>
       </c>
       <c r="O58">
-        <v>32.744</v>
+        <v>19.15403674631395</v>
       </c>
     </row>
     <row r="59">
@@ -3118,46 +3118,46 @@
         <v>38143</v>
       </c>
       <c r="B59">
-        <v>10.441</v>
+        <v>60.11507581458431</v>
       </c>
       <c r="C59">
-        <v>0.77</v>
+        <v>2.495896378186037</v>
       </c>
       <c r="D59">
-        <v>0.116</v>
+        <v>1.800208140696467</v>
       </c>
       <c r="E59">
-        <v>66.937</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>4.469</v>
+        <v>6.219818581835477</v>
       </c>
       <c r="G59">
-        <v>3.435</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.389</v>
+        <v>2.980023677463922</v>
       </c>
       <c r="I59">
-        <v>3.046</v>
+        <v>2.683446119199003</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0.604</v>
+        <v>1.412081659213441</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>0.3028041926811278</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>62.468</v>
+        <v>71.22159630420001</v>
       </c>
       <c r="O59">
-        <v>28.139</v>
+        <v>10.88412494652452</v>
       </c>
     </row>
     <row r="60">
@@ -3165,34 +3165,34 @@
         <v>38144</v>
       </c>
       <c r="B60">
-        <v>1.682</v>
+        <v>0.438752327</v>
       </c>
       <c r="C60">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>93.991</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2.876</v>
+        <v>10.9350303229275</v>
       </c>
       <c r="G60">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1.746</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1.284</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>91.114</v>
+        <v>78.91475570453213</v>
       </c>
       <c r="O60">
-        <v>2.568</v>
+        <v>10.15021397254037</v>
       </c>
     </row>
     <row r="61">
@@ -3212,34 +3212,34 @@
         <v>38145</v>
       </c>
       <c r="B61">
-        <v>2.958</v>
+        <v>10.6822563445</v>
       </c>
       <c r="C61">
-        <v>2.596</v>
+        <v>0.4439801711407059</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>78.303</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>3.354</v>
+        <v>3.848063693132056</v>
       </c>
       <c r="G61">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1.137400152942005</v>
       </c>
       <c r="I61">
-        <v>0.758</v>
+        <v>2.182315390886751</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>2.8</v>
+        <v>10.39836519717962</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>74.949</v>
+        <v>53.75922914597305</v>
       </c>
       <c r="O61">
-        <v>15.544</v>
+        <v>28.23064624874581</v>
       </c>
     </row>
     <row r="62">
@@ -3259,7 +3259,7 @@
         <v>38146</v>
       </c>
       <c r="B62">
-        <v>8.694000000000001</v>
+        <v>9.624087570500002</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>86.328</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>5.554</v>
+        <v>5.545937863616823</v>
       </c>
       <c r="G62">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>3.15</v>
+        <v>3.652159515644756</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>2.107</v>
+        <v>2.457911956506754</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3295,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>80.773</v>
+        <v>78.22562886768156</v>
       </c>
       <c r="O62">
-        <v>8.416</v>
+        <v>10.11836179655011</v>
       </c>
     </row>
     <row r="63">
@@ -3306,34 +3306,34 @@
         <v>38147</v>
       </c>
       <c r="B63">
-        <v>1.489</v>
+        <v>5.664391350249998</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1.106171804270455</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>94.254</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>36.158</v>
+        <v>18.50211438787232</v>
       </c>
       <c r="G63">
-        <v>0.696</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0.696</v>
+        <v>0.7628734373745703</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0.464</v>
+        <v>2.204363121811651</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>58.096</v>
+        <v>57.03923321095041</v>
       </c>
       <c r="O63">
-        <v>4.585</v>
+        <v>20.38524403772061</v>
       </c>
     </row>
     <row r="64">
@@ -3353,34 +3353,34 @@
         <v>38148</v>
       </c>
       <c r="B64">
-        <v>1.703</v>
+        <v>2.6863641937</v>
       </c>
       <c r="C64">
-        <v>1.523</v>
+        <v>2.01610042774596</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>81.624</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.914</v>
+        <v>2.177664522822068</v>
       </c>
       <c r="G64">
-        <v>5.736</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0.863</v>
+        <v>0.6365480912864507</v>
       </c>
       <c r="I64">
-        <v>4.873</v>
+        <v>5.134856633493551</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4.975</v>
+        <v>6.50777578892653</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>80.711</v>
+        <v>78.13314702535078</v>
       </c>
       <c r="O64">
-        <v>6.142</v>
+        <v>5.393907510374661</v>
       </c>
     </row>
     <row r="65">
@@ -3400,7 +3400,7 @@
         <v>38149</v>
       </c>
       <c r="B65">
-        <v>4.697</v>
+        <v>5.018334340529998</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3409,25 +3409,25 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>77.79600000000001</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>6.181</v>
+        <v>5.038062162540139</v>
       </c>
       <c r="G65">
-        <v>5.243</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>5.243</v>
+        <v>2.968549600150132</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0.184</v>
+        <v>0.1793423751644553</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>71.61499999999999</v>
+        <v>75.47551709219081</v>
       </c>
       <c r="O65">
-        <v>16.777</v>
+        <v>16.3385287699545</v>
       </c>
     </row>
     <row r="66">
@@ -3447,46 +3447,46 @@
         <v>38150</v>
       </c>
       <c r="B66">
-        <v>30.183</v>
+        <v>116.4758060453298</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.7481562116521113</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>85.913</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>3.782</v>
+        <v>3.557852341616109</v>
       </c>
       <c r="G66">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0.645</v>
+        <v>3.151351674502687</v>
       </c>
       <c r="I66">
-        <v>3.175</v>
+        <v>5.775057500277937</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1.441</v>
+        <v>1.61807796227358</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>0.3083021377506049</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>82.131</v>
+        <v>77.79578810387036</v>
       </c>
       <c r="O66">
-        <v>8.826000000000001</v>
+        <v>7.045414068056605</v>
       </c>
     </row>
     <row r="67">
@@ -3494,46 +3494,46 @@
         <v>38151</v>
       </c>
       <c r="B67">
-        <v>10.602</v>
+        <v>124.5506847655297</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.6996516957257002</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>86.80500000000001</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>19.312</v>
+        <v>3.864136064655324</v>
       </c>
       <c r="G67">
-        <v>3.645</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0.677</v>
+        <v>2.947043021971288</v>
       </c>
       <c r="I67">
-        <v>2.969</v>
+        <v>5.53172688692981</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1.174</v>
+        <v>1.527626566310599</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>0.2883142719576462</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>67.49299999999999</v>
+        <v>77.79866784667985</v>
       </c>
       <c r="O67">
-        <v>8.375</v>
+        <v>7.342833645769791</v>
       </c>
     </row>
     <row r="68">
@@ -3541,7 +3541,7 @@
         <v>38152</v>
       </c>
       <c r="B68">
-        <v>6.531</v>
+        <v>6.0821904586</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>83.012</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.902</v>
+        <v>1.489598864367927</v>
       </c>
       <c r="G68">
-        <v>3.104</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3.104</v>
+        <v>3.354642712832195</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0.608</v>
+        <v>0.4768955066013592</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>81.11</v>
+        <v>79.53626675336812</v>
       </c>
       <c r="O68">
-        <v>13.276</v>
+        <v>15.14259616283039</v>
       </c>
     </row>
     <row r="69">
@@ -3588,7 +3588,7 @@
         <v>38153</v>
       </c>
       <c r="B69">
-        <v>5.429</v>
+        <v>4.379101767</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3597,25 +3597,25 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>85.92400000000001</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.959</v>
+        <v>1.637848440529288</v>
       </c>
       <c r="G69">
-        <v>1.576</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1.576</v>
+        <v>2.88211730887596</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2.134</v>
+        <v>2.902403546722599</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>83.965</v>
+        <v>79.19817456939224</v>
       </c>
       <c r="O69">
-        <v>10.366</v>
+        <v>13.37945613447992</v>
       </c>
     </row>
     <row r="70">
@@ -3635,7 +3635,7 @@
         <v>38154</v>
       </c>
       <c r="B70">
-        <v>1.556</v>
+        <v>0.541301327357</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3644,25 +3644,25 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>91.137</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2.341</v>
+        <v>3.306071700836108</v>
       </c>
       <c r="G70">
-        <v>3.177</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>3.177</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2.564</v>
+        <v>5.935195126320345</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3671,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>88.79599999999999</v>
+        <v>81.44785631871011</v>
       </c>
       <c r="O70">
-        <v>3.122</v>
+        <v>9.31087685413344</v>
       </c>
     </row>
     <row r="71">
@@ -3682,7 +3682,7 @@
         <v>38155</v>
       </c>
       <c r="B71">
-        <v>10.716</v>
+        <v>45.18986991160002</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3691,25 +3691,25 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>57.231</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2.425</v>
+        <v>2.610148852624208</v>
       </c>
       <c r="G71">
-        <v>2.409</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.2802440021352919</v>
       </c>
       <c r="I71">
-        <v>2.409</v>
+        <v>6.675992556299837</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0.919</v>
+        <v>1.23678050875852</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>54.806</v>
+        <v>76.75625892473808</v>
       </c>
       <c r="O71">
-        <v>39.441</v>
+        <v>12.44057515544405</v>
       </c>
     </row>
     <row r="72">
@@ -3729,7 +3729,7 @@
         <v>38156</v>
       </c>
       <c r="B72">
-        <v>1.602</v>
+        <v>1.0354666</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3738,25 +3738,25 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>80.205</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>7.875</v>
+        <v>5.891408762001594</v>
       </c>
       <c r="G72">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1.025</v>
+        <v>1.563339657696347</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>2.373</v>
+        <v>2.668731178774863</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3765,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>72.33</v>
+        <v>63.51628821248313</v>
       </c>
       <c r="O72">
-        <v>16.397</v>
+        <v>26.36023218904405</v>
       </c>
     </row>
     <row r="73">
@@ -3776,46 +3776,46 @@
         <v>38157</v>
       </c>
       <c r="B73">
-        <v>6.777</v>
+        <v>4.32093069165</v>
       </c>
       <c r="C73">
-        <v>5.893</v>
+        <v>5.728511232043844</v>
       </c>
       <c r="D73">
-        <v>8.138</v>
+        <v>8.265127248861873</v>
       </c>
       <c r="E73">
-        <v>65.20399999999999</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>7.194</v>
+        <v>4.854925824322669</v>
       </c>
       <c r="G73">
-        <v>3.737</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>2.385</v>
+        <v>0.7529386912608985</v>
       </c>
       <c r="I73">
-        <v>1.352</v>
+        <v>0.872152213013384</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0.319</v>
+        <v>0.5207211502716351</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>0.1249730760651924</v>
       </c>
       <c r="M73">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>58.01</v>
+        <v>51.71983536599201</v>
       </c>
       <c r="O73">
-        <v>16.633</v>
+        <v>27.16081519816849</v>
       </c>
     </row>
     <row r="74">
@@ -3823,46 +3823,46 @@
         <v>38158</v>
       </c>
       <c r="B74">
-        <v>1.894</v>
+        <v>1.984016159</v>
       </c>
       <c r="C74">
-        <v>2.575</v>
+        <v>2.13140401141259</v>
       </c>
       <c r="D74">
-        <v>3.388</v>
+        <v>2.400454239445537</v>
       </c>
       <c r="E74">
-        <v>52.891</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>9.304</v>
+        <v>8.915757525339789</v>
       </c>
       <c r="G74">
-        <v>30.443</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>16.893</v>
+        <v>15.92619185920652</v>
       </c>
       <c r="I74">
-        <v>13.55</v>
+        <v>10.43042588444966</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>2.71</v>
+        <v>2.767114559574512</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1.270150945378464</v>
       </c>
       <c r="M74">
-        <v>1.265</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>43.586</v>
+        <v>49.44167060082901</v>
       </c>
       <c r="O74">
-        <v>6.73</v>
+        <v>6.716830374363902</v>
       </c>
     </row>
     <row r="75">
@@ -3870,46 +3870,46 @@
         <v>38159</v>
       </c>
       <c r="B75">
-        <v>12.575</v>
+        <v>52.97860657213562</v>
       </c>
       <c r="C75">
-        <v>4.713</v>
+        <v>2.760670305680036</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1.650613948876363</v>
       </c>
       <c r="E75">
-        <v>65.855</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>8.538</v>
+        <v>7.009436022254192</v>
       </c>
       <c r="G75">
-        <v>1.885</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0.97</v>
+        <v>2.454291756861483</v>
       </c>
       <c r="I75">
-        <v>0.915</v>
+        <v>2.369620371745075</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0.186</v>
+        <v>0.9483240037956095</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.2138561342600311</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>57.316</v>
+        <v>72.30650902043122</v>
       </c>
       <c r="O75">
-        <v>27.362</v>
+        <v>10.28667843609598</v>
       </c>
     </row>
     <row r="76">
@@ -3917,34 +3917,34 @@
         <v>38160</v>
       </c>
       <c r="B76">
-        <v>1.901</v>
+        <v>1.56337294985</v>
       </c>
       <c r="C76">
-        <v>5.22</v>
+        <v>8.109389382243313</v>
       </c>
       <c r="D76">
-        <v>16.614</v>
+        <v>18.98049022969667</v>
       </c>
       <c r="E76">
-        <v>60.645</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>6.491</v>
+        <v>5.01913155191336</v>
       </c>
       <c r="G76">
-        <v>4.585</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1.725</v>
+        <v>0.855195812444036</v>
       </c>
       <c r="I76">
-        <v>2.86</v>
+        <v>1.696626899073886</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0.681</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>54.15299999999999</v>
+        <v>49.79584998734267</v>
       </c>
       <c r="O76">
-        <v>12.256</v>
+        <v>15.54331613728605</v>
       </c>
     </row>
     <row r="77">
@@ -3964,28 +3964,28 @@
         <v>38161</v>
       </c>
       <c r="B77">
-        <v>2.073</v>
+        <v>1.9442812495</v>
       </c>
       <c r="C77">
-        <v>15.321</v>
+        <v>14.21630744374465</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>47.752</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>4.413</v>
+        <v>4.860407928343805</v>
       </c>
       <c r="G77">
-        <v>1.624</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1.624</v>
+        <v>1.327625311751483</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4000,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>43.339</v>
+        <v>37.65728233445066</v>
       </c>
       <c r="O77">
-        <v>35.304</v>
+        <v>41.93837698170941</v>
       </c>
     </row>
     <row r="78">
@@ -4011,46 +4011,46 @@
         <v>38162</v>
       </c>
       <c r="B78">
-        <v>4.76</v>
+        <v>2.7183583529</v>
       </c>
       <c r="C78">
-        <v>5.051</v>
+        <v>4.995698961291279</v>
       </c>
       <c r="D78">
-        <v>4.197</v>
+        <v>5.845270540967756</v>
       </c>
       <c r="E78">
-        <v>78.997</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>14.971</v>
+        <v>12.96280454061837</v>
       </c>
       <c r="G78">
-        <v>3.888</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.89</v>
+        <v>0.5624869136068055</v>
       </c>
       <c r="I78">
-        <v>2.998</v>
+        <v>1.346855537311378</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0.927</v>
+        <v>0.9747349892898663</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>0.5398611255335054</v>
       </c>
       <c r="M78">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>64.027</v>
+        <v>60.35670577242532</v>
       </c>
       <c r="O78">
-        <v>6.813</v>
+        <v>12.41558161895573</v>
       </c>
     </row>
     <row r="79">
@@ -4058,46 +4058,46 @@
         <v>38163</v>
       </c>
       <c r="B79">
-        <v>5.815</v>
+        <v>5.437211125085601</v>
       </c>
       <c r="C79">
-        <v>1.326</v>
+        <v>0.7245387220342633</v>
       </c>
       <c r="D79">
-        <v>0.6850000000000001</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>75.212</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>7.076</v>
+        <v>11.19291833781825</v>
       </c>
       <c r="G79">
-        <v>3.054</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1.445</v>
+        <v>0.2241404595045615</v>
       </c>
       <c r="I79">
-        <v>1.609</v>
+        <v>1.191787453333069</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1.639</v>
+        <v>0.8465342239083159</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>0.5958937266665346</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>68.136</v>
+        <v>58.82664673885813</v>
       </c>
       <c r="O79">
-        <v>18.084</v>
+        <v>26.39754033787687</v>
       </c>
     </row>
     <row r="80">
@@ -4105,46 +4105,46 @@
         <v>38164</v>
       </c>
       <c r="B80">
-        <v>1.437</v>
+        <v>1.703297393456</v>
       </c>
       <c r="C80">
-        <v>2.006</v>
+        <v>2.108651145595017</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>59.392</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>54.164</v>
+        <v>57.1676883888893</v>
       </c>
       <c r="G80">
-        <v>2.614</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1.337</v>
+        <v>1.677757513737322</v>
       </c>
       <c r="I80">
-        <v>1.277</v>
+        <v>1.261191503170989</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>22.31</v>
+        <v>18.47606555432268</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>3.829571996681683e-06</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>5.228</v>
+        <v>7.208582451410403</v>
       </c>
       <c r="O80">
-        <v>13.678</v>
+        <v>12.10005961330229</v>
       </c>
     </row>
     <row r="81">
@@ -4152,25 +4152,25 @@
         <v>38165</v>
       </c>
       <c r="B81">
-        <v>1.381</v>
+        <v>0.731727612</v>
       </c>
       <c r="C81">
-        <v>2.331</v>
+        <v>1.071311219016838</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>67.17100000000001</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>47.637</v>
+        <v>38.14588863704108</v>
       </c>
       <c r="G81">
-        <v>3.592</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>3.592</v>
+        <v>2.214688872503557</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>16.824</v>
+        <v>12.07584906608663</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>19.534</v>
+        <v>26.93580463108176</v>
       </c>
       <c r="O81">
-        <v>10.082</v>
+        <v>19.55645757427014</v>
       </c>
     </row>
     <row r="82">
@@ -4199,46 +4199,46 @@
         <v>38166</v>
       </c>
       <c r="B82">
-        <v>3.466</v>
+        <v>2.092101855653</v>
       </c>
       <c r="C82">
-        <v>3.608</v>
+        <v>2.796254868850085</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>66.901</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>24.054</v>
+        <v>24.7780923571811</v>
       </c>
       <c r="G82">
-        <v>9.095000000000001</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>1.528</v>
+        <v>1.427643205769132</v>
       </c>
       <c r="I82">
-        <v>7.567</v>
+        <v>8.919045145713453</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1.153</v>
+        <v>0.7337754592836707</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>0.005686338821341381</v>
       </c>
       <c r="M82">
-        <v>0.301</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>42.846</v>
+        <v>28.88979191045885</v>
       </c>
       <c r="O82">
-        <v>18.943</v>
+        <v>32.44971071392235</v>
       </c>
     </row>
     <row r="83">
@@ -4246,46 +4246,46 @@
         <v>38167</v>
       </c>
       <c r="B83">
-        <v>3.119</v>
+        <v>76.64313848591999</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1.375519480055835</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>78.26900000000001</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>44.713</v>
+        <v>48.2787889822618</v>
       </c>
       <c r="G83">
-        <v>0.501</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>6.436803400380454</v>
       </c>
       <c r="I83">
-        <v>0.501</v>
+        <v>4.891775110943246</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0.584</v>
+        <v>11.17790647309394</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1.547495561155664</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>33.556</v>
+        <v>19.96777633109513</v>
       </c>
       <c r="O83">
-        <v>20.646</v>
+        <v>6.323934661013925</v>
       </c>
     </row>
     <row r="84">
@@ -4293,7 +4293,7 @@
         <v>38168</v>
       </c>
       <c r="B84">
-        <v>2.904</v>
+        <v>2.937641880834</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>79.042</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>44.491</v>
+        <v>44.67188490747676</v>
       </c>
       <c r="G84">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0.299</v>
+        <v>1.779698211041209</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>3.174</v>
+        <v>2.968920873882667</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>34.551</v>
+        <v>32.63993695384623</v>
       </c>
       <c r="O84">
-        <v>17.485</v>
+        <v>17.93955905375315</v>
       </c>
     </row>
     <row r="85">
@@ -4340,46 +4340,46 @@
         <v>38169</v>
       </c>
       <c r="B85">
-        <v>11.233</v>
+        <v>97.73814360732999</v>
       </c>
       <c r="C85">
-        <v>0.062</v>
+        <v>1.320503155027397</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>61.881</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>25.565</v>
+        <v>52.54450209216831</v>
       </c>
       <c r="G85">
-        <v>3.349</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0.379</v>
+        <v>3.224519976726511</v>
       </c>
       <c r="I85">
-        <v>2.97</v>
+        <v>2.508463636827382</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>5.956</v>
+        <v>10.98239031306402</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>0.2819084417103008</v>
       </c>
       <c r="M85">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>36.316</v>
+        <v>18.21868633986883</v>
       </c>
       <c r="O85">
-        <v>28.744</v>
+        <v>10.91902604460725</v>
       </c>
     </row>
     <row r="86">
@@ -4387,7 +4387,7 @@
         <v>38170</v>
       </c>
       <c r="B86">
-        <v>1.138</v>
+        <v>0.8714451300270001</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4396,16 +4396,16 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>91.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>18.896</v>
+        <v>25.05796193883537</v>
       </c>
       <c r="G86">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1.342231380607704</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>72.783</v>
+        <v>63.03099439088972</v>
       </c>
       <c r="O86">
-        <v>8.087</v>
+        <v>10.56881228966721</v>
       </c>
     </row>
     <row r="87">
@@ -4434,7 +4434,7 @@
         <v>38171</v>
       </c>
       <c r="B87">
-        <v>1.772</v>
+        <v>0.5368641529999999</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4443,25 +4443,25 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>30.861</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>56.595</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>9.407999999999999</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>47.188</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0.597</v>
+        <v>0.9459357589106906</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>19.861</v>
+        <v>63.21017357998198</v>
       </c>
       <c r="O87">
-        <v>11.946</v>
+        <v>35.84389066110734</v>
       </c>
     </row>
     <row r="88">
@@ -4481,7 +4481,7 @@
         <v>38172</v>
       </c>
       <c r="B88">
-        <v>1.237</v>
+        <v>0.8965296429999998</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4490,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>90.607</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>58.02</v>
+        <v>12.04429412268748</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -4517,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>32.587</v>
+        <v>77.49414437376278</v>
       </c>
       <c r="O88">
-        <v>7.153</v>
+        <v>10.46156150354975</v>
       </c>
     </row>
     <row r="89">
@@ -4528,7 +4528,7 @@
         <v>38173</v>
       </c>
       <c r="B89">
-        <v>0.916</v>
+        <v>0.8737028303000001</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4537,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>90.449</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.478</v>
+        <v>1.35680240339036</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4564,10 +4564,10 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>89.97200000000001</v>
+        <v>86.44477081992119</v>
       </c>
       <c r="O89">
-        <v>9.551</v>
+        <v>12.19842677668844</v>
       </c>
     </row>
     <row r="90">
@@ -4575,7 +4575,7 @@
         <v>38174</v>
       </c>
       <c r="B90">
-        <v>1.997</v>
+        <v>2.817549935</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4584,25 +4584,25 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>43.902</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>17.517</v>
+        <v>13.65992684704628</v>
       </c>
       <c r="G90">
-        <v>41.685</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>35.255</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0.222</v>
+        <v>2.743540018217991</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>26.385</v>
+        <v>73.31201869187103</v>
       </c>
       <c r="O90">
-        <v>14.191</v>
+        <v>10.2845101119482</v>
       </c>
     </row>
     <row r="91">
@@ -4622,7 +4622,7 @@
         <v>38175</v>
       </c>
       <c r="B91">
-        <v>0.61</v>
+        <v>0.5294124380000002</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4631,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>87.209</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>31.686</v>
+        <v>11.86205602521186</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4658,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>55.523</v>
+        <v>72.53351270904595</v>
       </c>
       <c r="O91">
-        <v>12.791</v>
+        <v>15.60443126574219</v>
       </c>
     </row>
     <row r="92">
@@ -4669,7 +4669,7 @@
         <v>38176</v>
       </c>
       <c r="B92">
-        <v>1.902</v>
+        <v>2.54535391471</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4678,25 +4678,25 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>71.515</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>10.816</v>
+        <v>2.32130784086785</v>
       </c>
       <c r="G92">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1.308478943046888</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>60.7</v>
+        <v>76.55351907838738</v>
       </c>
       <c r="O92">
-        <v>28.159</v>
+        <v>19.81669413769788</v>
       </c>
     </row>
     <row r="93">
@@ -4716,7 +4716,7 @@
         <v>38177</v>
       </c>
       <c r="B93">
-        <v>1.136</v>
+        <v>1.252857901</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>81.33199999999999</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>15.182</v>
+        <v>8.477313342177661</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>2.479</v>
+        <v>4.378158126010812</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -4752,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>66.151</v>
+        <v>72.91817454084922</v>
       </c>
       <c r="O93">
-        <v>16.189</v>
+        <v>14.2263539909623</v>
       </c>
     </row>
     <row r="94">
@@ -4763,7 +4763,7 @@
         <v>38178</v>
       </c>
       <c r="B94">
-        <v>1.63</v>
+        <v>1.64443397</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4772,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>85.38800000000001</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>6.898</v>
+        <v>3.093818355017319</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.4041262903368506</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>78.49000000000001</v>
+        <v>82.72996087523052</v>
       </c>
       <c r="O94">
-        <v>14.612</v>
+        <v>13.77209447941531</v>
       </c>
     </row>
     <row r="95">
@@ -4810,7 +4810,7 @@
         <v>38179</v>
       </c>
       <c r="B95">
-        <v>2.042</v>
+        <v>2.105306402237</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4819,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>77.033</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>4.498</v>
+        <v>4.511471579579979</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>0.02852306910585267</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>72.535</v>
+        <v>74.83825644394888</v>
       </c>
       <c r="O95">
-        <v>22.967</v>
+        <v>20.62174890736529</v>
       </c>
     </row>
     <row r="96">
@@ -4857,7 +4857,7 @@
         <v>38180</v>
       </c>
       <c r="B96">
-        <v>1.017</v>
+        <v>0.8077240100000003</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>84.55500000000001</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>6.545</v>
+        <v>5.620270468374463</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>3.794762768040038</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -4893,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>78.011</v>
+        <v>71.96994503110039</v>
       </c>
       <c r="O96">
-        <v>15.445</v>
+        <v>18.61502173248508</v>
       </c>
     </row>
     <row r="97">
@@ -4904,7 +4904,7 @@
         <v>38181</v>
       </c>
       <c r="B97">
-        <v>0.589</v>
+        <v>0.5000012401999999</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4913,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>77.727</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>15.152</v>
+        <v>9.38327672572041</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4940,10 +4940,10 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>62.57600000000001</v>
+        <v>73.08020677185515</v>
       </c>
       <c r="O97">
-        <v>22.273</v>
+        <v>17.53651650242447</v>
       </c>
     </row>
     <row r="98">
@@ -4951,7 +4951,7 @@
         <v>38182</v>
       </c>
       <c r="B98">
-        <v>1.348</v>
+        <v>0.9182303699241001</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>92.526</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>25.661</v>
+        <v>50.51118751804496</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4987,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>66.86500000000001</v>
+        <v>39.16250405981718</v>
       </c>
       <c r="O98">
-        <v>7.474</v>
+        <v>10.32630841951325</v>
       </c>
     </row>
     <row r="99">
@@ -4998,7 +4998,7 @@
         <v>38183</v>
       </c>
       <c r="B99">
-        <v>2.725</v>
+        <v>2.5417673418</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5007,25 +5007,25 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>72.69199999999999</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>7.9</v>
+        <v>4.215492041223614</v>
       </c>
       <c r="G99">
-        <v>5.689</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0.845</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>4.844</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1.398</v>
+        <v>2.387499516656195</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -5034,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>64.792</v>
+        <v>71.1927666644159</v>
       </c>
       <c r="O99">
-        <v>20.221</v>
+        <v>22.17488558967998</v>
       </c>
     </row>
     <row r="100">
@@ -5045,7 +5045,7 @@
         <v>38184</v>
       </c>
       <c r="B100">
-        <v>1.482</v>
+        <v>1.35005640016</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -5054,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>92.00700000000001</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>42.969</v>
+        <v>26.29696803466321</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>49.038</v>
+        <v>65.30145703953684</v>
       </c>
       <c r="O100">
-        <v>7.692</v>
+        <v>8.401574925799951</v>
       </c>
     </row>
     <row r="101">
@@ -5092,19 +5092,19 @@
         <v>38185</v>
       </c>
       <c r="B101">
-        <v>0.8080000000000001</v>
+        <v>0.8771871184083002</v>
       </c>
       <c r="C101">
-        <v>4.425</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>79.093</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>37.942</v>
+        <v>49.02815470987321</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>0.3184383287648572</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>41.151</v>
+        <v>36.49816033333242</v>
       </c>
       <c r="O101">
-        <v>16.482</v>
+        <v>14.1552466280295</v>
       </c>
     </row>
     <row r="102">
@@ -5139,7 +5139,7 @@
         <v>38186</v>
       </c>
       <c r="B102">
-        <v>0.784</v>
+        <v>0.8769837508482599</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -5148,37 +5148,37 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>85.876</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>11.412</v>
+        <v>0.04953660767144213</v>
       </c>
       <c r="G102">
-        <v>0.678</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0.678</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>0.9834868652534869</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.452</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>74.46299999999999</v>
+        <v>87.4831833609135</v>
       </c>
       <c r="O102">
-        <v>12.994</v>
+        <v>11.48379316065863</v>
       </c>
     </row>
     <row r="103">
@@ -5186,7 +5186,7 @@
         <v>38187</v>
       </c>
       <c r="B103">
-        <v>0.709</v>
+        <v>0.7326166000000001</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -5195,10 +5195,10 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>77.182</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>3.865</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>0.01367236287029259</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -5222,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>73.31700000000001</v>
+        <v>78.62836222930245</v>
       </c>
       <c r="O103">
-        <v>22.818</v>
+        <v>21.35796540782723</v>
       </c>
     </row>
     <row r="104">
@@ -5233,7 +5233,7 @@
         <v>38188</v>
       </c>
       <c r="B104">
-        <v>3.25</v>
+        <v>3.313609476263</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5242,37 +5242,37 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>76.63200000000001</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>22.874</v>
+        <v>20.1789537277666</v>
       </c>
       <c r="G104">
-        <v>10.34</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>2.551</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>7.789</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0.137</v>
+        <v>0.7672479265321288</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M104">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>53.758</v>
+        <v>63.72417052930366</v>
       </c>
       <c r="O104">
-        <v>12.754</v>
+        <v>12.61929032360153</v>
       </c>
     </row>
     <row r="105">
@@ -5280,7 +5280,7 @@
         <v>38189</v>
       </c>
       <c r="B105">
-        <v>2.433</v>
+        <v>2.0326377997</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -5289,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>88.319</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>86.012</v>
+        <v>86.96629571490303</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>2.307</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>11.498</v>
+        <v>13.03370428509698</v>
       </c>
     </row>
     <row r="106">
@@ -5327,7 +5327,7 @@
         <v>38190</v>
       </c>
       <c r="B106">
-        <v>6.074</v>
+        <v>1.1013375555851</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -5336,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>68.64400000000001</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>4.023</v>
+        <v>5.775341054832954</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5363,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>64.62100000000001</v>
+        <v>86.30930188157473</v>
       </c>
       <c r="O106">
-        <v>31.356</v>
+        <v>7.915357063592301</v>
       </c>
     </row>
     <row r="107">
@@ -5374,46 +5374,46 @@
         <v>38191</v>
       </c>
       <c r="B107">
-        <v>2.14</v>
+        <v>1.6308199</v>
       </c>
       <c r="C107">
-        <v>1.189</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>80.48399999999999</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>7.626</v>
+        <v>3.073051683346461</v>
       </c>
       <c r="G107">
-        <v>0.9429999999999999</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0.9429999999999999</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0.123</v>
+        <v>0.2756915892702931</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>0.5170315331434463</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>72.857</v>
+        <v>73.48101929294955</v>
       </c>
       <c r="O107">
-        <v>17.261</v>
+        <v>22.65320590129025</v>
       </c>
     </row>
     <row r="108">
@@ -5421,7 +5421,7 @@
         <v>38192</v>
       </c>
       <c r="B108">
-        <v>6.628</v>
+        <v>4.983146891107</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5430,37 +5430,37 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>69.21299999999999</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>6.291</v>
+        <v>5.222720074025041</v>
       </c>
       <c r="G108">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0.254</v>
+        <v>1.458148386708671</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.9350000000000001</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>62.923</v>
+        <v>54.46986535644785</v>
       </c>
       <c r="O108">
-        <v>29.237</v>
+        <v>38.84926618267797</v>
       </c>
     </row>
     <row r="109">
@@ -5468,7 +5468,7 @@
         <v>38193</v>
       </c>
       <c r="B109">
-        <v>0.748</v>
+        <v>0.7539509142999999</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5477,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>78.512</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>5.983771508770753</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5504,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>78.51300000000001</v>
+        <v>70.95464759754054</v>
       </c>
       <c r="O109">
-        <v>21.488</v>
+        <v>23.06158089368869</v>
       </c>
     </row>
     <row r="110">
@@ -5515,7 +5515,7 @@
         <v>38194</v>
       </c>
       <c r="B110">
-        <v>0.743</v>
+        <v>0.49430296948</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>79.47199999999999</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>5.162</v>
+        <v>20.31005601799485</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5551,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>74.309</v>
+        <v>50.23978709681775</v>
       </c>
       <c r="O110">
-        <v>20.528</v>
+        <v>29.4501568851874</v>
       </c>
     </row>
     <row r="111">
@@ -5562,7 +5562,7 @@
         <v>38195</v>
       </c>
       <c r="B111">
-        <v>0.612</v>
+        <v>2.377420337</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5571,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>93.10299999999999</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>5.316</v>
+        <v>3.78833724092939</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1.293</v>
+        <v>1.194736141436482</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -5598,10 +5598,10 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>87.78700000000001</v>
+        <v>70.91270781032273</v>
       </c>
       <c r="O111">
-        <v>5.603</v>
+        <v>24.10372434835069</v>
       </c>
     </row>
     <row r="112">
@@ -5609,7 +5609,7 @@
         <v>38196</v>
       </c>
       <c r="B112">
-        <v>11.501</v>
+        <v>1.6129576</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>84.16500000000001</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>4.818</v>
+        <v>5.455874351563859</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5636,19 +5636,19 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
-        <v>79.346</v>
+        <v>70.9993879566332</v>
       </c>
       <c r="O112">
-        <v>15.812</v>
+        <v>23.1557233742536</v>
       </c>
     </row>
     <row r="113">
@@ -5656,7 +5656,7 @@
         <v>38197</v>
       </c>
       <c r="B113">
-        <v>0.958</v>
+        <v>0.809356188</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5665,25 +5665,25 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>87.21299999999999</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>6.256</v>
+        <v>10.89439993260421</v>
       </c>
       <c r="G113">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>0.6446976099477231</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>80.956</v>
+        <v>75.22297315159342</v>
       </c>
       <c r="O113">
-        <v>12.511</v>
+        <v>13.23792930585464</v>
       </c>
     </row>
     <row r="114">
@@ -5703,7 +5703,7 @@
         <v>38198</v>
       </c>
       <c r="B114">
-        <v>1.868</v>
+        <v>1.37948415721</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5712,37 +5712,37 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>89.655</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>13.651</v>
+        <v>12.6571732692556</v>
       </c>
       <c r="G114">
-        <v>1.984</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1.606</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>2.406368338954881</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.756</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>76.004</v>
+        <v>74.7144298195155</v>
       </c>
       <c r="O114">
-        <v>7.605</v>
+        <v>10.22202857227405</v>
       </c>
     </row>
     <row r="115">
@@ -5750,7 +5750,7 @@
         <v>38199</v>
       </c>
       <c r="B115">
-        <v>2.002</v>
+        <v>2.878209028813</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5759,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>92.637</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>2.337</v>
+        <v>3.222865298225244</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>2.630936642959154</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -5786,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>90.3</v>
+        <v>89.06317597986205</v>
       </c>
       <c r="O115">
-        <v>7.363</v>
+        <v>5.083022064604372</v>
       </c>
     </row>
     <row r="116">
@@ -5797,7 +5797,7 @@
         <v>38200</v>
       </c>
       <c r="B116">
-        <v>0.396</v>
+        <v>0.677</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>99.556</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>5.111</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5824,19 +5824,19 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>0.0006086362377163619</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>0.05837544873109778</v>
       </c>
       <c r="M116">
         <v>0</v>
       </c>
       <c r="N116">
-        <v>94.44399999999999</v>
+        <v>81.91588842512147</v>
       </c>
       <c r="O116">
-        <v>0.444</v>
+        <v>18.02512748990975</v>
       </c>
     </row>
     <row r="117">

--- a/Data/159_df_metadata_merged_landcover.xlsx
+++ b/Data/159_df_metadata_merged_landcover.xlsx
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>66.09</v>
       </c>
       <c r="O2">
         <v>0.55</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>80.16</v>
       </c>
       <c r="O3">
         <v>4.53</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>75.78</v>
       </c>
       <c r="O4">
         <v>4.07</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>67.41</v>
       </c>
       <c r="O5">
         <v>5.26</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>77.14</v>
       </c>
       <c r="O6">
         <v>2.68</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="O7">
         <v>6.93</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>65.39</v>
       </c>
       <c r="O8">
         <v>8.49</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>64.16</v>
       </c>
       <c r="O9">
         <v>1.96</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>86.97674418604652</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3.023255813953488</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>68.85775862068965</v>
       </c>
       <c r="O11">
         <v>2.155172413793104</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.801724137931035</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>68.85775862068965</v>
       </c>
       <c r="O12">
         <v>2.155172413793104</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.801724137931035</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>67.25663716814158</v>
       </c>
       <c r="O13">
         <v>0.695322376738306</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>11.28318584070796</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>77.14079363729094</v>
       </c>
       <c r="O14">
         <v>65.05022430368274</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>72.77326372661993</v>
       </c>
       <c r="O15">
         <v>54.02272694889505</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>87.75797758128448</v>
       </c>
       <c r="O16">
         <v>81.1697936018673</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>91.73114554835955</v>
       </c>
       <c r="O17">
         <v>90.50881618837407</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>86.29784183108426</v>
       </c>
       <c r="O18">
         <v>84.64035981020712</v>
@@ -1994,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>63.1581082885243</v>
       </c>
       <c r="O19">
         <v>4.260536067712624</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>4.353196274297732</v>
       </c>
       <c r="Q19">
         <v>1.542378801638775</v>
@@ -2080,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>80.06940831724555</v>
       </c>
       <c r="O20">
         <v>2.397611119681352</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.669286335698697</v>
       </c>
       <c r="Q20">
         <v>0.5106837692517379</v>
@@ -2166,13 +2166,13 @@
         <v>0.220591080837085</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>78.10793098656561</v>
       </c>
       <c r="O21">
         <v>9.694266426314282</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.633329400178628</v>
       </c>
       <c r="Q21">
         <v>4.504558835785655</v>
@@ -2252,13 +2252,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>71.57263566006682</v>
       </c>
       <c r="O22">
         <v>2.468366603694047</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2338942968605873</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2340,9 +2340,6 @@
       <c r="N23">
         <v>73.5</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -2362,9 +2359,6 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
@@ -2426,9 +2420,6 @@
       <c r="N24">
         <v>86.2</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -2448,9 +2439,6 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
@@ -2512,9 +2500,6 @@
       <c r="N25">
         <v>78</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -2534,9 +2519,6 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
@@ -2598,9 +2580,6 @@
       <c r="N26">
         <v>66.09999999999999</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
       <c r="P26">
         <v>0</v>
       </c>
@@ -2620,9 +2599,6 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
@@ -2682,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.945716400218148</v>
       </c>
       <c r="O27">
         <v>0.803819074240935</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>49.19518326449716</v>
       </c>
       <c r="Q27">
         <v>5.386537440635712</v>
@@ -2768,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>50.26072108762709</v>
       </c>
       <c r="O28">
         <v>33.77815969090928</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>26.96750672411539</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2854,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>73.37972850445986</v>
       </c>
       <c r="O29">
         <v>32.40308010718918</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>13.4664149626755</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2940,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>0.2727278322941567</v>
       </c>
       <c r="O30">
         <v>0.2727278322941567</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>73.29068255796669</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3026,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>64.42741282436558</v>
       </c>
       <c r="O31">
         <v>54.1436419100796</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>16.59425778486688</v>
       </c>
       <c r="Q31">
         <v>2.760061364229727</v>
@@ -3112,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>75.22951658747687</v>
       </c>
       <c r="O32">
         <v>66.16502621881492</v>
@@ -3198,13 +3174,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>37.88811769866609</v>
       </c>
       <c r="O33">
         <v>24.05474528835809</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>33.19745020685545</v>
       </c>
       <c r="Q33">
         <v>5.071789883028254</v>
@@ -3284,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>55.3049603754964</v>
       </c>
       <c r="O34">
         <v>47.57292436084673</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>13.16294143479802</v>
       </c>
       <c r="Q34">
         <v>2.237184793401103</v>
@@ -3370,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>80.47898892220675</v>
       </c>
       <c r="O35">
         <v>51.43068378640364</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.531275256514616</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3456,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>74.94295604663255</v>
       </c>
       <c r="O36">
         <v>69.22747921339192</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1.522974814360596</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3542,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>73.11865865515256</v>
       </c>
       <c r="O37">
         <v>52.44824281014889</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>2.905590554754512</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3628,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>74.11244287002191</v>
       </c>
       <c r="O38">
         <v>46.30612694385988</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>0.5811948430577305</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3714,13 +3690,13 @@
         <v>4.91649504211248</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>55.96222429175471</v>
       </c>
       <c r="O39">
         <v>1.978093763799698</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>10.9298737412319</v>
       </c>
       <c r="Q39">
         <v>3.73539243850056</v>
@@ -3800,13 +3776,13 @@
         <v>2.679134393080659</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>54.58951727302779</v>
       </c>
       <c r="O40">
         <v>9.862456853532791</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>2.086250970151851</v>
       </c>
       <c r="Q40">
         <v>1.257598222939876</v>
@@ -3886,13 +3862,13 @@
         <v>6.987796089961732</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>67.99081269047588</v>
       </c>
       <c r="O41">
         <v>9.30492768767775</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>4.217153810347236</v>
       </c>
       <c r="Q41">
         <v>2.087394635361917</v>
@@ -3972,13 +3948,13 @@
         <v>0.6119208058315428</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>71.67161998732814</v>
       </c>
       <c r="O42">
         <v>17.22272764453717</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>7.036012078981011</v>
       </c>
       <c r="Q42">
         <v>4.236464890925911</v>
@@ -4058,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>62.19209565382619</v>
       </c>
       <c r="O43">
         <v>5.980637040399652</v>
@@ -4144,13 +4120,13 @@
         <v>18.49625872954079</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>56.97349128653126</v>
       </c>
       <c r="O44">
         <v>5.7139071956448</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>9.838022783602561</v>
       </c>
       <c r="Q44">
         <v>5.344393555717073</v>
@@ -4230,13 +4206,13 @@
         <v>0.7125563579458127</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>62.7962522322463</v>
       </c>
       <c r="O45">
         <v>10.96615870956933</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>4.795516923097312</v>
       </c>
       <c r="Q45">
         <v>4.330321314936567</v>
@@ -4316,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>81.42929255682996</v>
       </c>
       <c r="O46">
         <v>26.02474585362097</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>6.042605533863371</v>
       </c>
       <c r="Q46">
         <v>2.357011920641038</v>
@@ -4402,13 +4378,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>64.1999107390167</v>
       </c>
       <c r="O47">
         <v>1.555385211782272</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>8.53802921484565</v>
       </c>
       <c r="Q47">
         <v>1.484086733879446</v>
@@ -4488,13 +4464,13 @@
         <v>1.428651287822474</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>52.50143251260668</v>
       </c>
       <c r="O48">
         <v>9.274604012380257</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2.170323957585325</v>
       </c>
       <c r="Q48">
         <v>1.265115344639808</v>
@@ -4574,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>64.12528125592797</v>
       </c>
       <c r="O49">
         <v>0.742293237546232</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2.071831132815165</v>
       </c>
       <c r="Q49">
         <v>1.668780455494413</v>
@@ -4660,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>65.42007533104091</v>
       </c>
       <c r="O50">
         <v>1.430497394147251</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>5.777925058623288</v>
       </c>
       <c r="Q50">
         <v>1.653267059405602</v>
@@ -4746,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>78.76049247193396</v>
       </c>
       <c r="O51">
         <v>2.453488545903281</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>6.639165919957398</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -4832,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>63.56529815952911</v>
       </c>
       <c r="O52">
         <v>11.28985193103426</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>10.60910836007211</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4918,13 +4894,13 @@
         <v>0.219821547433524</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>78.0603527336621</v>
       </c>
       <c r="O53">
         <v>9.677745526743548</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>8.604742086582633</v>
       </c>
       <c r="Q53">
         <v>4.488844653329641</v>
@@ -5004,13 +4980,13 @@
         <v>0.2341116259500335</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>78.10753765339771</v>
       </c>
       <c r="O54">
         <v>9.782311127552351</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>8.587371946560946</v>
       </c>
       <c r="Q54">
         <v>4.476847110882324</v>
@@ -5090,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>62.70127981050267</v>
       </c>
       <c r="O55">
         <v>5.917697701306668</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>0.5762332441197436</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5176,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>73.7826968708834</v>
       </c>
       <c r="O56">
         <v>3.980286252034801</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>15.41070374272655</v>
       </c>
       <c r="Q56">
         <v>7.16071661374829</v>
@@ -5262,13 +5238,13 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>72.78567923807694</v>
       </c>
       <c r="O57">
         <v>4.114305330849022</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>0.6188982870271988</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5348,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>72.64457354779189</v>
       </c>
       <c r="O58">
         <v>3.054656121648415</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>5.379702208748427</v>
       </c>
       <c r="Q58">
         <v>0.3224334453177654</v>
@@ -5434,13 +5410,13 @@
         <v>1.800208140696467</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>77.44141488603549</v>
       </c>
       <c r="O59">
         <v>6.219818581835477</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>5.663469796662925</v>
       </c>
       <c r="Q59">
         <v>2.980023677463922</v>
@@ -5520,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>89.84978602745963</v>
       </c>
       <c r="O60">
         <v>10.9350303229275</v>
@@ -5606,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>57.60729283910511</v>
       </c>
       <c r="O61">
         <v>3.848063693132056</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>3.319715543828756</v>
       </c>
       <c r="Q61">
         <v>1.137400152942005</v>
@@ -5692,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>83.77156673129838</v>
       </c>
       <c r="O62">
         <v>5.545937863616823</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>3.652159515644756</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5778,13 +5754,13 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>75.54134759882272</v>
       </c>
       <c r="O63">
         <v>18.50211438787232</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>0.7628734373745703</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5864,13 +5840,13 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>80.31081154817285</v>
       </c>
       <c r="O64">
         <v>2.177664522822068</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>5.771404724780002</v>
       </c>
       <c r="Q64">
         <v>0.6365480912864507</v>
@@ -5950,13 +5926,13 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>80.51357925473094</v>
       </c>
       <c r="O65">
         <v>5.038062162540139</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>2.968549600150132</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -6036,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>81.35364044548649</v>
       </c>
       <c r="O66">
         <v>3.557852341616109</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>8.926409174780623</v>
       </c>
       <c r="Q66">
         <v>3.151351674502687</v>
@@ -6122,13 +6098,13 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>81.66280391133517</v>
       </c>
       <c r="O67">
         <v>3.864136064655324</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>8.478769908901098</v>
       </c>
       <c r="Q67">
         <v>2.947043021971288</v>
@@ -6208,13 +6184,13 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>81.02586561773606</v>
       </c>
       <c r="O68">
         <v>1.489598864367927</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>3.354642712832195</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -6294,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>80.83602300992152</v>
       </c>
       <c r="O69">
         <v>1.637848440529288</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>2.88211730887596</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -6380,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>84.75392801954621</v>
       </c>
       <c r="O70">
         <v>3.306071700836108</v>
@@ -6466,13 +6442,13 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>79.36640777736228</v>
       </c>
       <c r="O71">
         <v>2.610148852624208</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>6.956236558435129</v>
       </c>
       <c r="Q71">
         <v>0.2802440021352919</v>
@@ -6552,13 +6528,13 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>69.40769697448474</v>
       </c>
       <c r="O72">
         <v>5.891408762001594</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1.563339657696347</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -6638,13 +6614,13 @@
         <v>8.265127248861873</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>56.57476119031467</v>
       </c>
       <c r="O73">
         <v>4.854925824322669</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1.625090904274282</v>
       </c>
       <c r="Q73">
         <v>0.7529386912608985</v>
@@ -6724,13 +6700,13 @@
         <v>2.400454239445537</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>58.3574281261688</v>
       </c>
       <c r="O74">
         <v>8.915757525339789</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>26.35661774365619</v>
       </c>
       <c r="Q74">
         <v>15.92619185920652</v>
@@ -6810,13 +6786,13 @@
         <v>1.650613948876363</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>79.31594504268541</v>
       </c>
       <c r="O75">
         <v>7.009436022254192</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>4.823912128606558</v>
       </c>
       <c r="Q75">
         <v>2.454291756861483</v>
@@ -6896,13 +6872,13 @@
         <v>18.98049022969667</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>54.81498153925603</v>
       </c>
       <c r="O76">
         <v>5.01913155191336</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>2.551822711517922</v>
       </c>
       <c r="Q76">
         <v>0.855195812444036</v>
@@ -6982,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>42.51769026279446</v>
       </c>
       <c r="O77">
         <v>4.860407928343805</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1.327625311751483</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -7068,13 +7044,13 @@
         <v>5.845270540967756</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>73.31951031304369</v>
       </c>
       <c r="O78">
         <v>12.96280454061837</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1.909342450918183</v>
       </c>
       <c r="Q78">
         <v>0.5624869136068055</v>
@@ -7154,13 +7130,13 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>70.01956507667637</v>
       </c>
       <c r="O79">
         <v>11.19291833781825</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1.415927912837631</v>
       </c>
       <c r="Q79">
         <v>0.2241404595045615</v>
@@ -7240,13 +7216,13 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>64.37627084029971</v>
       </c>
       <c r="O80">
         <v>57.1676883888893</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>2.938949016908311</v>
       </c>
       <c r="Q80">
         <v>1.677757513737322</v>
@@ -7326,13 +7302,13 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>65.08169326812285</v>
       </c>
       <c r="O81">
         <v>38.14588863704108</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>2.214688872503557</v>
       </c>
       <c r="Q81">
         <v>2.214688872503557</v>
@@ -7412,13 +7388,13 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>53.66788426763996</v>
       </c>
       <c r="O82">
         <v>24.7780923571811</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>10.34668835148259</v>
       </c>
       <c r="Q82">
         <v>1.427643205769132</v>
@@ -7498,13 +7474,13 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>68.24656531335694</v>
       </c>
       <c r="O83">
         <v>48.2787889822618</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>11.3285785113237</v>
       </c>
       <c r="Q83">
         <v>6.436803400380454</v>
@@ -7584,13 +7560,13 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>77.31182186132298</v>
       </c>
       <c r="O84">
         <v>44.67188490747676</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1.779698211041209</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -7670,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>70.76318843203714</v>
       </c>
       <c r="O85">
         <v>52.54450209216831</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>5.732983613553893</v>
       </c>
       <c r="Q85">
         <v>3.224519976726511</v>
@@ -7756,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>88.08895632972508</v>
       </c>
       <c r="O86">
         <v>25.05796193883537</v>
@@ -7842,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>63.21017357998198</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -7928,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>89.53843849645025</v>
       </c>
       <c r="O88">
         <v>12.04429412268748</v>
@@ -8014,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>87.80157322331155</v>
       </c>
       <c r="O89">
         <v>1.35680240339036</v>
@@ -8100,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>86.97194553891732</v>
       </c>
       <c r="O90">
         <v>13.65992684704628</v>
@@ -8186,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>84.39556873425781</v>
       </c>
       <c r="O91">
         <v>11.86205602521186</v>
@@ -8272,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>78.87482691925524</v>
       </c>
       <c r="O92">
         <v>2.32130784086785</v>
@@ -8358,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>81.39548788302689</v>
       </c>
       <c r="O93">
         <v>8.477313342177661</v>
@@ -8444,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>85.82377923024782</v>
       </c>
       <c r="O94">
         <v>3.093818355017319</v>
@@ -8530,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>79.34972802352885</v>
       </c>
       <c r="O95">
         <v>4.511471579579979</v>
@@ -8616,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>77.59021549947485</v>
       </c>
       <c r="O96">
         <v>5.620270468374463</v>
@@ -8702,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>82.46348349757557</v>
       </c>
       <c r="O97">
         <v>9.38327672572041</v>
@@ -8788,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>89.67369157786214</v>
       </c>
       <c r="O98">
         <v>50.51118751804496</v>
@@ -8874,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>75.4082587056395</v>
       </c>
       <c r="O99">
         <v>4.215492041223614</v>
@@ -8960,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>91.59842507420005</v>
       </c>
       <c r="O100">
         <v>26.29696803466321</v>
@@ -9046,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>85.52631504320564</v>
       </c>
       <c r="O101">
         <v>49.02815470987321</v>
@@ -9132,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>87.53271996858494</v>
       </c>
       <c r="O102">
         <v>0.04953660767144213</v>
@@ -9218,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>78.62836222930245</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -9304,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>83.90312425707026</v>
       </c>
       <c r="O104">
         <v>20.1789537277666</v>
@@ -9390,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>86.96629571490303</v>
       </c>
       <c r="O105">
         <v>86.96629571490303</v>
@@ -9476,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>92.08464293640768</v>
       </c>
       <c r="O106">
         <v>5.775341054832954</v>
@@ -9562,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>76.55407097629603</v>
       </c>
       <c r="O107">
         <v>3.073051683346461</v>
@@ -9648,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>59.6925854304729</v>
       </c>
       <c r="O108">
         <v>5.222720074025041</v>
@@ -9734,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>76.9384191063113</v>
       </c>
       <c r="O109">
         <v>5.983771508770753</v>
@@ -9820,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>70.5498431148126</v>
       </c>
       <c r="O110">
         <v>20.31005601799485</v>
@@ -9906,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>74.70104505125212</v>
       </c>
       <c r="O111">
         <v>3.78833724092939</v>
@@ -9992,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>76.45526230819705</v>
       </c>
       <c r="O112">
         <v>5.455874351563859</v>
@@ -10078,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>86.11737308419762</v>
       </c>
       <c r="O113">
         <v>10.89439993260421</v>
@@ -10164,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>87.37160308877111</v>
       </c>
       <c r="O114">
         <v>12.6571732692556</v>
@@ -10250,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>92.28604127808728</v>
       </c>
       <c r="O115">
         <v>3.222865298225244</v>
@@ -10336,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>81.91588842512147</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -11190,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>66.23999999999999</v>
+        <v>66.239</v>
       </c>
       <c r="O126">
         <v>55.903</v>
@@ -11362,7 +11338,7 @@
         <v>0.018</v>
       </c>
       <c r="N128">
-        <v>58.118</v>
+        <v>58.11799999999999</v>
       </c>
       <c r="O128">
         <v>46.354</v>
@@ -11448,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>80.40900000000001</v>
+        <v>80.40899999999999</v>
       </c>
       <c r="O129">
         <v>80.267</v>
@@ -11542,15 +11518,6 @@
       <c r="P130">
         <v>10.062</v>
       </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
       <c r="T130">
         <v>6.745</v>
       </c>
@@ -11620,22 +11587,13 @@
         <v>3.785</v>
       </c>
       <c r="N131">
-        <v>77.586</v>
+        <v>77.587</v>
       </c>
       <c r="O131">
         <v>62.291</v>
       </c>
       <c r="P131">
         <v>1.458</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
       </c>
       <c r="T131">
         <v>3.233</v>
@@ -11964,7 +11922,7 @@
         <v>0.063</v>
       </c>
       <c r="N135">
-        <v>72.538</v>
+        <v>72.539</v>
       </c>
       <c r="O135">
         <v>65.27200000000001</v>
@@ -12566,7 +12524,7 @@
         <v>0.478</v>
       </c>
       <c r="N142">
-        <v>59.056</v>
+        <v>59.055</v>
       </c>
       <c r="O142">
         <v>47.524</v>
@@ -12746,15 +12704,6 @@
       <c r="P144">
         <v>0.281</v>
       </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>0</v>
-      </c>
-      <c r="S144">
-        <v>0</v>
-      </c>
       <c r="T144">
         <v>7.522</v>
       </c>
@@ -12832,15 +12781,6 @@
       <c r="P145">
         <v>3.681</v>
       </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
       <c r="T145">
         <v>1.206</v>
       </c>
@@ -13168,7 +13108,7 @@
         <v>0.65</v>
       </c>
       <c r="N149">
-        <v>80.27500000000001</v>
+        <v>80.27399999999999</v>
       </c>
       <c r="O149">
         <v>69.06399999999999</v>
@@ -13254,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>76.605</v>
+        <v>76.60400000000001</v>
       </c>
       <c r="O150">
         <v>52.423</v>
@@ -13340,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <v>72.616</v>
+        <v>72.61600000000001</v>
       </c>
       <c r="O151">
         <v>54.938</v>
@@ -13942,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <v>95.90000000000001</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="O158">
         <v>89.3</v>
@@ -15066,7 +15006,7 @@
         <v>61.3</v>
       </c>
       <c r="P171">
-        <v>9.1</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="Q171">
         <v>8.800000000000001</v>
@@ -16439,7 +16379,7 @@
         <v>19.643</v>
       </c>
       <c r="P187">
-        <v>48.556</v>
+        <v>48.557</v>
       </c>
       <c r="Q187">
         <v>18.374</v>
@@ -16825,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="N194">
-        <v>2.735</v>
+        <v>2.736</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -17177,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="P199">
-        <v>33.674</v>
+        <v>33.673</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -19149,7 +19089,7 @@
         <v>37.147</v>
       </c>
       <c r="N222">
-        <v>40.895</v>
+        <v>40.894</v>
       </c>
       <c r="O222">
         <v>11.406</v>
@@ -19235,7 +19175,7 @@
         <v>44.866</v>
       </c>
       <c r="N223">
-        <v>37.471</v>
+        <v>37.47</v>
       </c>
       <c r="O223">
         <v>1.842</v>
@@ -19321,7 +19261,7 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <v>8.808</v>
+        <v>8.807</v>
       </c>
       <c r="O224">
         <v>8.380000000000001</v>
@@ -20269,7 +20209,7 @@
         <v>2.172</v>
       </c>
       <c r="N236">
-        <v>75.435</v>
+        <v>75.43600000000001</v>
       </c>
       <c r="O236">
         <v>68.02800000000001</v>
@@ -20441,7 +20381,7 @@
         <v>0.765</v>
       </c>
       <c r="N238">
-        <v>86.42700000000001</v>
+        <v>86.42600000000002</v>
       </c>
       <c r="O238">
         <v>63.026</v>
@@ -20785,7 +20725,7 @@
         <v>2.42</v>
       </c>
       <c r="N242">
-        <v>67.42</v>
+        <v>67.42100000000001</v>
       </c>
       <c r="O242">
         <v>0.231</v>
@@ -20957,7 +20897,7 @@
         <v>1.076</v>
       </c>
       <c r="N244">
-        <v>25.025</v>
+        <v>25.024</v>
       </c>
       <c r="O244">
         <v>5.657</v>
@@ -21215,7 +21155,7 @@
         <v>2.445</v>
       </c>
       <c r="N247">
-        <v>5.506</v>
+        <v>5.505</v>
       </c>
       <c r="O247">
         <v>0</v>
@@ -22247,7 +22187,7 @@
         <v>0</v>
       </c>
       <c r="N259">
-        <v>19.236</v>
+        <v>19.237</v>
       </c>
       <c r="O259">
         <v>0.161</v>
@@ -22668,7 +22608,7 @@
         <v>4.964</v>
       </c>
       <c r="N264">
-        <v>73.89700000000001</v>
+        <v>73.89699999999999</v>
       </c>
       <c r="O264">
         <v>63.58</v>
@@ -22917,22 +22857,13 @@
         <v>0</v>
       </c>
       <c r="N267">
-        <v>82.295</v>
+        <v>82.29499999999999</v>
       </c>
       <c r="O267">
         <v>80.77</v>
       </c>
       <c r="P267">
         <v>0.834</v>
-      </c>
-      <c r="Q267">
-        <v>0</v>
-      </c>
-      <c r="R267">
-        <v>0</v>
-      </c>
-      <c r="S267">
-        <v>0</v>
       </c>
       <c r="T267">
         <v>1.873</v>
@@ -23097,15 +23028,6 @@
       <c r="P269">
         <v>46.037</v>
       </c>
-      <c r="Q269">
-        <v>0</v>
-      </c>
-      <c r="R269">
-        <v>0</v>
-      </c>
-      <c r="S269">
-        <v>0</v>
-      </c>
       <c r="T269">
         <v>5.985</v>
       </c>
@@ -23175,7 +23097,7 @@
         <v>0.8129999999999999</v>
       </c>
       <c r="N270">
-        <v>62.082</v>
+        <v>62.08300000000001</v>
       </c>
       <c r="O270">
         <v>49.948</v>
@@ -23424,7 +23346,7 @@
         <v>1.012</v>
       </c>
       <c r="N273">
-        <v>81.30500000000001</v>
+        <v>81.30499999999999</v>
       </c>
       <c r="O273">
         <v>59.3</v>
@@ -23501,22 +23423,13 @@
         <v>0</v>
       </c>
       <c r="N274">
-        <v>76.333</v>
+        <v>76.33200000000001</v>
       </c>
       <c r="O274">
         <v>73.429</v>
       </c>
       <c r="P274">
         <v>3.404</v>
-      </c>
-      <c r="Q274">
-        <v>0</v>
-      </c>
-      <c r="R274">
-        <v>0</v>
-      </c>
-      <c r="S274">
-        <v>0</v>
       </c>
       <c r="T274">
         <v>19.329</v>
@@ -23587,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="N275">
-        <v>80.40900000000001</v>
+        <v>80.40799999999999</v>
       </c>
       <c r="O275">
         <v>75.877</v>
@@ -23664,22 +23577,13 @@
         <v>0</v>
       </c>
       <c r="N276">
-        <v>59.154</v>
+        <v>59.153</v>
       </c>
       <c r="O276">
         <v>49.669</v>
       </c>
       <c r="P276">
         <v>0.341</v>
-      </c>
-      <c r="Q276">
-        <v>0</v>
-      </c>
-      <c r="R276">
-        <v>0</v>
-      </c>
-      <c r="S276">
-        <v>0</v>
       </c>
       <c r="T276">
         <v>20.632</v>
@@ -23836,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="N278">
-        <v>5.275</v>
+        <v>5.276</v>
       </c>
       <c r="O278">
         <v>0</v>
@@ -23930,15 +23834,6 @@
       <c r="P279">
         <v>4.568</v>
       </c>
-      <c r="Q279">
-        <v>0</v>
-      </c>
-      <c r="R279">
-        <v>0</v>
-      </c>
-      <c r="S279">
-        <v>0</v>
-      </c>
       <c r="T279">
         <v>39.918</v>
       </c>
@@ -24008,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="N280">
-        <v>19.596</v>
+        <v>19.597</v>
       </c>
       <c r="O280">
         <v>18.374</v>
@@ -24085,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <v>75.943</v>
+        <v>75.94300000000001</v>
       </c>
       <c r="O281">
         <v>73.04300000000001</v>
@@ -24429,7 +24324,7 @@
         <v>0.429</v>
       </c>
       <c r="N285">
-        <v>78.22</v>
+        <v>78.22000000000001</v>
       </c>
       <c r="O285">
         <v>77.68000000000001</v>
@@ -24773,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="N289">
-        <v>78.315</v>
+        <v>78.31500000000001</v>
       </c>
       <c r="O289">
         <v>77.77500000000001</v>
@@ -24859,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="N290">
-        <v>74.767</v>
+        <v>74.768</v>
       </c>
       <c r="O290">
         <v>74.761</v>
@@ -25203,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="N294">
-        <v>73.366</v>
+        <v>73.367</v>
       </c>
       <c r="O294">
         <v>63.685</v>
@@ -25289,7 +25184,7 @@
         <v>0</v>
       </c>
       <c r="N295">
-        <v>79.169</v>
+        <v>79.16900000000001</v>
       </c>
       <c r="O295">
         <v>77.39100000000001</v>
@@ -25375,7 +25270,7 @@
         <v>0</v>
       </c>
       <c r="N296">
-        <v>85.97799999999999</v>
+        <v>85.97800000000001</v>
       </c>
       <c r="O296">
         <v>79.02500000000001</v>
@@ -26579,7 +26474,7 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <v>47.981</v>
+        <v>47.982</v>
       </c>
       <c r="O310">
         <v>10.382</v>
@@ -26751,7 +26646,7 @@
         <v>0</v>
       </c>
       <c r="N312">
-        <v>80.324</v>
+        <v>80.32400000000001</v>
       </c>
       <c r="O312">
         <v>80.28400000000001</v>
@@ -26837,7 +26732,7 @@
         <v>0.93</v>
       </c>
       <c r="N313">
-        <v>3.437</v>
+        <v>3.436</v>
       </c>
       <c r="O313">
         <v>0</v>
@@ -27009,7 +26904,7 @@
         <v>0</v>
       </c>
       <c r="N315">
-        <v>65.46599999999999</v>
+        <v>65.467</v>
       </c>
       <c r="O315">
         <v>30.378</v>
@@ -27353,13 +27248,13 @@
         <v>8.878</v>
       </c>
       <c r="N319">
-        <v>74.182</v>
+        <v>74.18199999999999</v>
       </c>
       <c r="O319">
         <v>58.236</v>
       </c>
       <c r="P319">
-        <v>1.133</v>
+        <v>1.132</v>
       </c>
       <c r="Q319">
         <v>1.075</v>
@@ -27525,7 +27420,7 @@
         <v>2.1</v>
       </c>
       <c r="N321">
-        <v>68.72799999999999</v>
+        <v>68.727</v>
       </c>
       <c r="O321">
         <v>59.109</v>
@@ -27789,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="P324">
-        <v>17.507</v>
+        <v>17.506</v>
       </c>
       <c r="Q324">
         <v>14.322</v>
@@ -28391,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="P331">
-        <v>49.755</v>
+        <v>49.754</v>
       </c>
       <c r="Q331">
         <v>48.772</v>
@@ -28477,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="P332">
-        <v>54.753</v>
+        <v>54.754</v>
       </c>
       <c r="Q332">
         <v>48.45</v>
@@ -29167,15 +29062,6 @@
       <c r="P340">
         <v>55.874</v>
       </c>
-      <c r="Q340">
-        <v>0</v>
-      </c>
-      <c r="R340">
-        <v>0</v>
-      </c>
-      <c r="S340">
-        <v>0</v>
-      </c>
       <c r="T340">
         <v>0.636</v>
       </c>
@@ -29245,22 +29131,13 @@
         <v>1.512</v>
       </c>
       <c r="N341">
-        <v>83.812</v>
+        <v>83.81200000000001</v>
       </c>
       <c r="O341">
         <v>68.16200000000001</v>
       </c>
       <c r="P341">
         <v>2.608</v>
-      </c>
-      <c r="Q341">
-        <v>0</v>
-      </c>
-      <c r="R341">
-        <v>0</v>
-      </c>
-      <c r="S341">
-        <v>0</v>
       </c>
       <c r="T341">
         <v>3.007</v>
@@ -29331,22 +29208,13 @@
         <v>10.446</v>
       </c>
       <c r="N342">
-        <v>50.135</v>
+        <v>50.136</v>
       </c>
       <c r="O342">
         <v>29.794</v>
       </c>
       <c r="P342">
         <v>6.468</v>
-      </c>
-      <c r="Q342">
-        <v>0</v>
-      </c>
-      <c r="R342">
-        <v>0</v>
-      </c>
-      <c r="S342">
-        <v>0</v>
       </c>
       <c r="T342">
         <v>0.276</v>
@@ -29417,7 +29285,7 @@
         <v>0.141</v>
       </c>
       <c r="N343">
-        <v>75.005</v>
+        <v>75.006</v>
       </c>
       <c r="O343">
         <v>71.087</v>
@@ -29502,15 +29370,6 @@
       <c r="P344">
         <v>0.333</v>
       </c>
-      <c r="Q344">
-        <v>0</v>
-      </c>
-      <c r="R344">
-        <v>0</v>
-      </c>
-      <c r="S344">
-        <v>0</v>
-      </c>
       <c r="T344">
         <v>10.878</v>
       </c>
@@ -29580,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="N345">
-        <v>63.511</v>
+        <v>63.512</v>
       </c>
       <c r="O345">
         <v>2.792</v>
@@ -29924,22 +29783,13 @@
         <v>0.494</v>
       </c>
       <c r="N349">
-        <v>80.48</v>
+        <v>80.479</v>
       </c>
       <c r="O349">
         <v>65.70999999999999</v>
       </c>
       <c r="P349">
         <v>1.393</v>
-      </c>
-      <c r="Q349">
-        <v>0</v>
-      </c>
-      <c r="R349">
-        <v>0</v>
-      </c>
-      <c r="S349">
-        <v>0</v>
       </c>
       <c r="T349">
         <v>6.26</v>
@@ -30018,15 +29868,6 @@
       <c r="P350">
         <v>1.859</v>
       </c>
-      <c r="Q350">
-        <v>0</v>
-      </c>
-      <c r="R350">
-        <v>0</v>
-      </c>
-      <c r="S350">
-        <v>0</v>
-      </c>
       <c r="T350">
         <v>6.331</v>
       </c>
@@ -30096,22 +29937,13 @@
         <v>0.136</v>
       </c>
       <c r="N351">
-        <v>70.907</v>
+        <v>70.90600000000001</v>
       </c>
       <c r="O351">
         <v>64.229</v>
       </c>
       <c r="P351">
         <v>0.234</v>
-      </c>
-      <c r="Q351">
-        <v>0</v>
-      </c>
-      <c r="R351">
-        <v>0</v>
-      </c>
-      <c r="S351">
-        <v>0</v>
       </c>
       <c r="T351">
         <v>0.124</v>
@@ -30182,22 +30014,13 @@
         <v>1.186</v>
       </c>
       <c r="N352">
-        <v>74.508</v>
+        <v>74.50800000000001</v>
       </c>
       <c r="O352">
         <v>73.179</v>
       </c>
       <c r="P352">
         <v>1.002</v>
-      </c>
-      <c r="Q352">
-        <v>0</v>
-      </c>
-      <c r="R352">
-        <v>0</v>
-      </c>
-      <c r="S352">
-        <v>0</v>
       </c>
       <c r="T352">
         <v>4.513</v>
@@ -30268,22 +30091,13 @@
         <v>0.055</v>
       </c>
       <c r="N353">
-        <v>74.06999999999999</v>
+        <v>74.069</v>
       </c>
       <c r="O353">
         <v>73.227</v>
       </c>
       <c r="P353">
         <v>1.061</v>
-      </c>
-      <c r="Q353">
-        <v>0</v>
-      </c>
-      <c r="R353">
-        <v>0</v>
-      </c>
-      <c r="S353">
-        <v>0</v>
       </c>
       <c r="T353">
         <v>2.183</v>
@@ -30354,22 +30168,13 @@
         <v>0</v>
       </c>
       <c r="N354">
-        <v>79.06399999999999</v>
+        <v>79.06400000000001</v>
       </c>
       <c r="O354">
         <v>77.697</v>
       </c>
       <c r="P354">
         <v>0.328</v>
-      </c>
-      <c r="Q354">
-        <v>0</v>
-      </c>
-      <c r="R354">
-        <v>0</v>
-      </c>
-      <c r="S354">
-        <v>0</v>
       </c>
       <c r="T354">
         <v>5.7</v>
@@ -30440,22 +30245,13 @@
         <v>0.296</v>
       </c>
       <c r="N355">
-        <v>80.437</v>
+        <v>80.43599999999999</v>
       </c>
       <c r="O355">
         <v>68.389</v>
       </c>
       <c r="P355">
         <v>0.971</v>
-      </c>
-      <c r="Q355">
-        <v>0</v>
-      </c>
-      <c r="R355">
-        <v>0</v>
-      </c>
-      <c r="S355">
-        <v>0</v>
       </c>
       <c r="T355">
         <v>5.734</v>
@@ -30534,15 +30330,6 @@
       <c r="P356">
         <v>1.865</v>
       </c>
-      <c r="Q356">
-        <v>0</v>
-      </c>
-      <c r="R356">
-        <v>0</v>
-      </c>
-      <c r="S356">
-        <v>0</v>
-      </c>
       <c r="T356">
         <v>1.19</v>
       </c>
@@ -30706,15 +30493,6 @@
       <c r="P358">
         <v>1.172</v>
       </c>
-      <c r="Q358">
-        <v>0</v>
-      </c>
-      <c r="R358">
-        <v>0</v>
-      </c>
-      <c r="S358">
-        <v>0</v>
-      </c>
       <c r="T358">
         <v>3.508</v>
       </c>
@@ -30784,22 +30562,13 @@
         <v>0.078</v>
       </c>
       <c r="N359">
-        <v>87.542</v>
+        <v>87.54199999999999</v>
       </c>
       <c r="O359">
         <v>82.72</v>
       </c>
       <c r="P359">
         <v>0.697</v>
-      </c>
-      <c r="Q359">
-        <v>0</v>
-      </c>
-      <c r="R359">
-        <v>0</v>
-      </c>
-      <c r="S359">
-        <v>0</v>
       </c>
       <c r="T359">
         <v>5.306</v>
@@ -30956,22 +30725,13 @@
         <v>0</v>
       </c>
       <c r="N361">
-        <v>85.215</v>
+        <v>85.21499999999999</v>
       </c>
       <c r="O361">
         <v>79.008</v>
       </c>
       <c r="P361">
         <v>2.088</v>
-      </c>
-      <c r="Q361">
-        <v>0</v>
-      </c>
-      <c r="R361">
-        <v>0</v>
-      </c>
-      <c r="S361">
-        <v>0</v>
       </c>
       <c r="T361">
         <v>1.851</v>
@@ -31042,22 +30802,13 @@
         <v>0.789</v>
       </c>
       <c r="N362">
-        <v>78.191</v>
+        <v>78.19099999999999</v>
       </c>
       <c r="O362">
         <v>63.168</v>
       </c>
       <c r="P362">
         <v>5.121</v>
-      </c>
-      <c r="Q362">
-        <v>0</v>
-      </c>
-      <c r="R362">
-        <v>0</v>
-      </c>
-      <c r="S362">
-        <v>0</v>
       </c>
       <c r="T362">
         <v>11.501</v>
@@ -31222,15 +30973,6 @@
       <c r="P364">
         <v>0.254</v>
       </c>
-      <c r="Q364">
-        <v>0</v>
-      </c>
-      <c r="R364">
-        <v>0</v>
-      </c>
-      <c r="S364">
-        <v>0</v>
-      </c>
       <c r="T364">
         <v>5.39</v>
       </c>
@@ -31300,22 +31042,13 @@
         <v>8.954000000000001</v>
       </c>
       <c r="N365">
-        <v>77.279</v>
+        <v>77.28</v>
       </c>
       <c r="O365">
         <v>68.863</v>
       </c>
       <c r="P365">
         <v>2.444</v>
-      </c>
-      <c r="Q365">
-        <v>0</v>
-      </c>
-      <c r="R365">
-        <v>0</v>
-      </c>
-      <c r="S365">
-        <v>0</v>
       </c>
       <c r="T365">
         <v>0.773</v>
@@ -31394,15 +31127,6 @@
       <c r="P366">
         <v>1.758</v>
       </c>
-      <c r="Q366">
-        <v>0</v>
-      </c>
-      <c r="R366">
-        <v>0</v>
-      </c>
-      <c r="S366">
-        <v>0</v>
-      </c>
       <c r="T366">
         <v>1.204</v>
       </c>
@@ -31472,22 +31196,13 @@
         <v>5.276</v>
       </c>
       <c r="N367">
-        <v>79.48399999999999</v>
+        <v>79.483</v>
       </c>
       <c r="O367">
         <v>66.57299999999999</v>
       </c>
       <c r="P367">
         <v>1.009</v>
-      </c>
-      <c r="Q367">
-        <v>0</v>
-      </c>
-      <c r="R367">
-        <v>0</v>
-      </c>
-      <c r="S367">
-        <v>0</v>
       </c>
       <c r="T367">
         <v>7.458</v>
@@ -31558,22 +31273,13 @@
         <v>0.62</v>
       </c>
       <c r="N368">
-        <v>79.151</v>
+        <v>79.15199999999999</v>
       </c>
       <c r="O368">
         <v>69.163</v>
       </c>
       <c r="P368">
         <v>3.087</v>
-      </c>
-      <c r="Q368">
-        <v>0</v>
-      </c>
-      <c r="R368">
-        <v>0</v>
-      </c>
-      <c r="S368">
-        <v>0</v>
       </c>
       <c r="T368">
         <v>8.988</v>
@@ -31644,22 +31350,13 @@
         <v>0.023</v>
       </c>
       <c r="N369">
-        <v>89.42100000000001</v>
+        <v>89.41999999999999</v>
       </c>
       <c r="O369">
         <v>88.10599999999999</v>
       </c>
       <c r="P369">
         <v>0.213</v>
-      </c>
-      <c r="Q369">
-        <v>0</v>
-      </c>
-      <c r="R369">
-        <v>0</v>
-      </c>
-      <c r="S369">
-        <v>0</v>
       </c>
       <c r="T369">
         <v>1.31</v>
@@ -31738,15 +31435,6 @@
       <c r="P370">
         <v>0.456</v>
       </c>
-      <c r="Q370">
-        <v>0</v>
-      </c>
-      <c r="R370">
-        <v>0</v>
-      </c>
-      <c r="S370">
-        <v>0</v>
-      </c>
       <c r="T370">
         <v>0.643</v>
       </c>
@@ -31816,22 +31504,13 @@
         <v>0.136</v>
       </c>
       <c r="N371">
-        <v>81.553</v>
+        <v>81.55300000000001</v>
       </c>
       <c r="O371">
         <v>67.596</v>
       </c>
       <c r="P371">
         <v>0.961</v>
-      </c>
-      <c r="Q371">
-        <v>0</v>
-      </c>
-      <c r="R371">
-        <v>0</v>
-      </c>
-      <c r="S371">
-        <v>0</v>
       </c>
       <c r="T371">
         <v>1.03</v>
@@ -31902,22 +31581,13 @@
         <v>0</v>
       </c>
       <c r="N372">
-        <v>83.78400000000001</v>
+        <v>83.78399999999999</v>
       </c>
       <c r="O372">
         <v>79.20099999999999</v>
       </c>
       <c r="P372">
         <v>2.065</v>
-      </c>
-      <c r="Q372">
-        <v>0</v>
-      </c>
-      <c r="R372">
-        <v>0</v>
-      </c>
-      <c r="S372">
-        <v>0</v>
       </c>
       <c r="T372">
         <v>0.342</v>
@@ -31988,22 +31658,13 @@
         <v>0</v>
       </c>
       <c r="N373">
-        <v>66.68899999999999</v>
+        <v>66.688</v>
       </c>
       <c r="O373">
         <v>56.643</v>
       </c>
       <c r="P373">
         <v>0.217</v>
-      </c>
-      <c r="Q373">
-        <v>0</v>
-      </c>
-      <c r="R373">
-        <v>0</v>
-      </c>
-      <c r="S373">
-        <v>0</v>
       </c>
       <c r="T373">
         <v>17.532</v>
@@ -32074,22 +31735,13 @@
         <v>1.043</v>
       </c>
       <c r="N374">
-        <v>82.762</v>
+        <v>82.76300000000001</v>
       </c>
       <c r="O374">
         <v>63.234</v>
       </c>
       <c r="P374">
         <v>1.692</v>
-      </c>
-      <c r="Q374">
-        <v>0</v>
-      </c>
-      <c r="R374">
-        <v>0</v>
-      </c>
-      <c r="S374">
-        <v>0</v>
       </c>
       <c r="T374">
         <v>0.293</v>
@@ -32160,22 +31812,13 @@
         <v>0.382</v>
       </c>
       <c r="N375">
-        <v>84.432</v>
+        <v>84.43199999999999</v>
       </c>
       <c r="O375">
         <v>79.026</v>
       </c>
       <c r="P375">
         <v>0.418</v>
-      </c>
-      <c r="Q375">
-        <v>0</v>
-      </c>
-      <c r="R375">
-        <v>0</v>
-      </c>
-      <c r="S375">
-        <v>0</v>
       </c>
       <c r="T375">
         <v>3.578</v>
@@ -32254,15 +31897,6 @@
       <c r="P376">
         <v>2.157</v>
       </c>
-      <c r="Q376">
-        <v>0</v>
-      </c>
-      <c r="R376">
-        <v>0</v>
-      </c>
-      <c r="S376">
-        <v>0</v>
-      </c>
       <c r="T376">
         <v>4.222</v>
       </c>
@@ -32340,15 +31974,6 @@
       <c r="P377">
         <v>0.217</v>
       </c>
-      <c r="Q377">
-        <v>0</v>
-      </c>
-      <c r="R377">
-        <v>0</v>
-      </c>
-      <c r="S377">
-        <v>0</v>
-      </c>
       <c r="T377">
         <v>10.23</v>
       </c>
@@ -32426,15 +32051,6 @@
       <c r="P378">
         <v>0.244</v>
       </c>
-      <c r="Q378">
-        <v>0</v>
-      </c>
-      <c r="R378">
-        <v>0</v>
-      </c>
-      <c r="S378">
-        <v>0</v>
-      </c>
       <c r="T378">
         <v>1.916</v>
       </c>
@@ -32512,15 +32128,6 @@
       <c r="P379">
         <v>1.018</v>
       </c>
-      <c r="Q379">
-        <v>0</v>
-      </c>
-      <c r="R379">
-        <v>0</v>
-      </c>
-      <c r="S379">
-        <v>0</v>
-      </c>
       <c r="T379">
         <v>2.739</v>
       </c>
@@ -32598,15 +32205,6 @@
       <c r="P380">
         <v>6.121</v>
       </c>
-      <c r="Q380">
-        <v>0</v>
-      </c>
-      <c r="R380">
-        <v>0</v>
-      </c>
-      <c r="S380">
-        <v>0</v>
-      </c>
       <c r="T380">
         <v>6.85</v>
       </c>
@@ -32684,15 +32282,6 @@
       <c r="P381">
         <v>0.8</v>
       </c>
-      <c r="Q381">
-        <v>0</v>
-      </c>
-      <c r="R381">
-        <v>0</v>
-      </c>
-      <c r="S381">
-        <v>0</v>
-      </c>
       <c r="T381">
         <v>11.475</v>
       </c>
@@ -32770,15 +32359,6 @@
       <c r="P382">
         <v>0.111</v>
       </c>
-      <c r="Q382">
-        <v>0</v>
-      </c>
-      <c r="R382">
-        <v>0</v>
-      </c>
-      <c r="S382">
-        <v>0</v>
-      </c>
       <c r="T382">
         <v>1.049</v>
       </c>
@@ -32942,15 +32522,6 @@
       <c r="P384">
         <v>7.067</v>
       </c>
-      <c r="Q384">
-        <v>0</v>
-      </c>
-      <c r="R384">
-        <v>0</v>
-      </c>
-      <c r="S384">
-        <v>0</v>
-      </c>
       <c r="T384">
         <v>1.638</v>
       </c>
@@ -33020,22 +32591,13 @@
         <v>1.27</v>
       </c>
       <c r="N385">
-        <v>68.52500000000001</v>
+        <v>68.524</v>
       </c>
       <c r="O385">
         <v>65.717</v>
       </c>
       <c r="P385">
         <v>4.467</v>
-      </c>
-      <c r="Q385">
-        <v>0</v>
-      </c>
-      <c r="R385">
-        <v>0</v>
-      </c>
-      <c r="S385">
-        <v>0</v>
       </c>
       <c r="T385">
         <v>0.307</v>
@@ -33106,22 +32668,13 @@
         <v>1.177</v>
       </c>
       <c r="N386">
-        <v>81.673</v>
+        <v>81.67400000000001</v>
       </c>
       <c r="O386">
         <v>65.136</v>
       </c>
       <c r="P386">
         <v>2.761</v>
-      </c>
-      <c r="Q386">
-        <v>0</v>
-      </c>
-      <c r="R386">
-        <v>0</v>
-      </c>
-      <c r="S386">
-        <v>0</v>
       </c>
       <c r="T386">
         <v>0.218</v>
@@ -33192,22 +32745,13 @@
         <v>0</v>
       </c>
       <c r="N387">
-        <v>56.579</v>
+        <v>56.57899999999999</v>
       </c>
       <c r="O387">
         <v>42.964</v>
       </c>
       <c r="P387">
         <v>13.59</v>
-      </c>
-      <c r="Q387">
-        <v>0</v>
-      </c>
-      <c r="R387">
-        <v>0</v>
-      </c>
-      <c r="S387">
-        <v>0</v>
       </c>
       <c r="T387">
         <v>22.655</v>
@@ -33278,22 +32822,13 @@
         <v>0.15</v>
       </c>
       <c r="N388">
-        <v>82.95399999999999</v>
+        <v>82.95400000000001</v>
       </c>
       <c r="O388">
         <v>69.91500000000001</v>
       </c>
       <c r="P388">
         <v>1.979</v>
-      </c>
-      <c r="Q388">
-        <v>0</v>
-      </c>
-      <c r="R388">
-        <v>0</v>
-      </c>
-      <c r="S388">
-        <v>0</v>
       </c>
       <c r="T388">
         <v>5.659</v>
@@ -33458,15 +32993,6 @@
       <c r="P390">
         <v>8.677</v>
       </c>
-      <c r="Q390">
-        <v>0</v>
-      </c>
-      <c r="R390">
-        <v>0</v>
-      </c>
-      <c r="S390">
-        <v>0</v>
-      </c>
       <c r="T390">
         <v>4.22</v>
       </c>
@@ -33802,15 +33328,6 @@
       <c r="P394">
         <v>1.65</v>
       </c>
-      <c r="Q394">
-        <v>0</v>
-      </c>
-      <c r="R394">
-        <v>0</v>
-      </c>
-      <c r="S394">
-        <v>0</v>
-      </c>
       <c r="T394">
         <v>1.465</v>
       </c>
@@ -34146,15 +33663,6 @@
       <c r="P398">
         <v>1.151</v>
       </c>
-      <c r="Q398">
-        <v>0</v>
-      </c>
-      <c r="R398">
-        <v>0</v>
-      </c>
-      <c r="S398">
-        <v>0</v>
-      </c>
       <c r="T398">
         <v>0</v>
       </c>
@@ -34232,15 +33740,6 @@
       <c r="P399">
         <v>0.369</v>
       </c>
-      <c r="Q399">
-        <v>0</v>
-      </c>
-      <c r="R399">
-        <v>0</v>
-      </c>
-      <c r="S399">
-        <v>0</v>
-      </c>
       <c r="T399">
         <v>3.105</v>
       </c>
@@ -34310,7 +33809,7 @@
         <v>0</v>
       </c>
       <c r="N400">
-        <v>84.80500000000001</v>
+        <v>84.804</v>
       </c>
       <c r="O400">
         <v>82.613</v>
@@ -34490,15 +33989,6 @@
       <c r="P402">
         <v>1.393</v>
       </c>
-      <c r="Q402">
-        <v>0</v>
-      </c>
-      <c r="R402">
-        <v>0</v>
-      </c>
-      <c r="S402">
-        <v>0</v>
-      </c>
       <c r="T402">
         <v>1.525</v>
       </c>
@@ -34568,22 +34058,13 @@
         <v>0</v>
       </c>
       <c r="N403">
-        <v>82.193</v>
+        <v>82.194</v>
       </c>
       <c r="O403">
         <v>76.527</v>
       </c>
       <c r="P403">
         <v>0.24</v>
-      </c>
-      <c r="Q403">
-        <v>0</v>
-      </c>
-      <c r="R403">
-        <v>0</v>
-      </c>
-      <c r="S403">
-        <v>0</v>
       </c>
       <c r="T403">
         <v>1.553</v>
@@ -34808,7 +34289,7 @@
         <v>0.103</v>
       </c>
       <c r="N406">
-        <v>84.24299999999999</v>
+        <v>84.24300000000001</v>
       </c>
       <c r="O406">
         <v>68.126</v>
@@ -34885,7 +34366,7 @@
         <v>0.097</v>
       </c>
       <c r="N407">
-        <v>83.907</v>
+        <v>83.90700000000001</v>
       </c>
       <c r="O407">
         <v>69.629</v>
@@ -34962,7 +34443,7 @@
         <v>1.16</v>
       </c>
       <c r="N408">
-        <v>84.34099999999999</v>
+        <v>84.34</v>
       </c>
       <c r="O408">
         <v>78.932</v>
@@ -35193,7 +34674,7 @@
         <v>0.004</v>
       </c>
       <c r="N411">
-        <v>74.70699999999999</v>
+        <v>74.708</v>
       </c>
       <c r="O411">
         <v>44.226</v>
@@ -35682,7 +35163,7 @@
         <v>7.866</v>
       </c>
       <c r="N417">
-        <v>69.18600000000001</v>
+        <v>69.185</v>
       </c>
       <c r="O417">
         <v>47.758</v>
@@ -35759,7 +35240,7 @@
         <v>0</v>
       </c>
       <c r="N418">
-        <v>72.66</v>
+        <v>72.661</v>
       </c>
       <c r="O418">
         <v>68.218</v>
@@ -35836,7 +35317,7 @@
         <v>3.088</v>
       </c>
       <c r="N419">
-        <v>80.468</v>
+        <v>80.467</v>
       </c>
       <c r="O419">
         <v>65.794</v>
@@ -36171,7 +35652,7 @@
         <v>1.003</v>
       </c>
       <c r="N423">
-        <v>77.718</v>
+        <v>77.71899999999999</v>
       </c>
       <c r="O423">
         <v>56.559</v>
@@ -36248,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="N424">
-        <v>75.78700000000001</v>
+        <v>75.78699999999999</v>
       </c>
       <c r="O424">
         <v>70.672</v>
@@ -36325,7 +35806,7 @@
         <v>0</v>
       </c>
       <c r="N425">
-        <v>80.56100000000001</v>
+        <v>80.56</v>
       </c>
       <c r="O425">
         <v>57.509</v>
@@ -36488,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="N427">
-        <v>81.601</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="O427">
         <v>79.217</v>
@@ -36642,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="N429">
-        <v>83.358</v>
+        <v>83.357</v>
       </c>
       <c r="O429">
         <v>77.77</v>
@@ -36796,7 +36277,7 @@
         <v>0.395</v>
       </c>
       <c r="N431">
-        <v>89.276</v>
+        <v>89.27600000000001</v>
       </c>
       <c r="O431">
         <v>84.167</v>
@@ -36876,7 +36357,7 @@
         <v>0.34</v>
       </c>
       <c r="P432">
-        <v>11.61</v>
+        <v>11.611</v>
       </c>
       <c r="Q432">
         <v>0</v>
@@ -37436,7 +36917,7 @@
         <v>50.158</v>
       </c>
       <c r="P439">
-        <v>30.018</v>
+        <v>30.017</v>
       </c>
       <c r="Q439">
         <v>13.468</v>
@@ -37593,13 +37074,13 @@
         <v>0</v>
       </c>
       <c r="N441">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O441">
         <v>2</v>
       </c>
       <c r="P441">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Q441">
         <v>0</v>
@@ -37679,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="N442">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O442">
         <v>42</v>
       </c>
       <c r="P442">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Q442">
         <v>0</v>
@@ -37773,15 +37254,6 @@
       <c r="P443">
         <v>20.4</v>
       </c>
-      <c r="Q443">
-        <v>0</v>
-      </c>
-      <c r="R443">
-        <v>0</v>
-      </c>
-      <c r="S443">
-        <v>0</v>
-      </c>
       <c r="T443">
         <v>0</v>
       </c>
@@ -37851,13 +37323,13 @@
         <v>0</v>
       </c>
       <c r="N444">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="O444">
         <v>36</v>
       </c>
       <c r="P444">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="Q444">
         <v>4</v>
@@ -37943,7 +37415,7 @@
         <v>0</v>
       </c>
       <c r="P445">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Q445">
         <v>9.5</v>
@@ -38029,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="P446">
-        <v>0</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="Q446">
         <v>0</v>
@@ -38109,13 +37581,13 @@
         <v>0</v>
       </c>
       <c r="N447">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="O447">
         <v>53.8</v>
       </c>
       <c r="P447">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="Q447">
         <v>12.7</v>
@@ -38201,7 +37673,7 @@
         <v>0</v>
       </c>
       <c r="P448">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q448">
         <v>20</v>
@@ -38287,7 +37759,7 @@
         <v>0</v>
       </c>
       <c r="P449">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q449">
         <v>85</v>
@@ -38373,7 +37845,7 @@
         <v>0</v>
       </c>
       <c r="P450">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="Q450">
         <v>84.3</v>
@@ -38459,7 +37931,7 @@
         <v>0</v>
       </c>
       <c r="P451">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q451">
         <v>10</v>
@@ -38539,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="N452">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O452">
         <v>15</v>
       </c>
       <c r="P452">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q452">
         <v>0</v>
@@ -38631,7 +38103,7 @@
         <v>0</v>
       </c>
       <c r="P453">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="Q453">
         <v>34.5</v>
@@ -38711,13 +38183,13 @@
         <v>0</v>
       </c>
       <c r="N454">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="O454">
         <v>53.3</v>
       </c>
       <c r="P454">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="Q454">
         <v>0.8</v>
@@ -38797,13 +38269,13 @@
         <v>0</v>
       </c>
       <c r="N455">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O455">
         <v>50</v>
       </c>
       <c r="P455">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q455">
         <v>10</v>
@@ -38883,13 +38355,13 @@
         <v>0</v>
       </c>
       <c r="N456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O456">
         <v>0</v>
       </c>
       <c r="P456">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q456">
         <v>10</v>
@@ -38975,7 +38447,7 @@
         <v>0</v>
       </c>
       <c r="P457">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q457">
         <v>10</v>
@@ -39061,7 +38533,7 @@
         <v>0</v>
       </c>
       <c r="P458">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="Q458">
         <v>40</v>
@@ -39141,13 +38613,13 @@
         <v>0</v>
       </c>
       <c r="N459">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O459">
         <v>10</v>
       </c>
       <c r="P459">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q459">
         <v>10</v>
@@ -39227,13 +38699,13 @@
         <v>0</v>
       </c>
       <c r="N460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O460">
         <v>0</v>
       </c>
       <c r="P460">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Q460">
         <v>98</v>
@@ -39319,7 +38791,7 @@
         <v>0</v>
       </c>
       <c r="P461">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q461">
         <v>30</v>
@@ -39405,7 +38877,7 @@
         <v>0</v>
       </c>
       <c r="P462">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="Q462">
         <v>25</v>
@@ -39482,7 +38954,7 @@
         <v>0</v>
       </c>
       <c r="N463">
-        <v>99.995</v>
+        <v>99.994</v>
       </c>
       <c r="O463">
         <v>6.102</v>
@@ -40146,7 +39618,7 @@
         <v>0</v>
       </c>
       <c r="N471">
-        <v>99.038</v>
+        <v>99.03800000000001</v>
       </c>
       <c r="O471">
         <v>82.14400000000001</v>
@@ -40229,7 +39701,7 @@
         <v>0</v>
       </c>
       <c r="N472">
-        <v>52.138</v>
+        <v>52.13700000000001</v>
       </c>
       <c r="O472">
         <v>11.52</v>
@@ -40893,7 +40365,7 @@
         <v>0</v>
       </c>
       <c r="N480">
-        <v>82.383</v>
+        <v>82.38199999999999</v>
       </c>
       <c r="O480">
         <v>17.32</v>
@@ -41059,7 +40531,7 @@
         <v>0</v>
       </c>
       <c r="N482">
-        <v>93.988</v>
+        <v>93.989</v>
       </c>
       <c r="O482">
         <v>28.895</v>
@@ -41142,7 +40614,7 @@
         <v>0</v>
       </c>
       <c r="N483">
-        <v>80.413</v>
+        <v>80.41200000000001</v>
       </c>
       <c r="O483">
         <v>13.337</v>
@@ -41391,7 +40863,7 @@
         <v>0</v>
       </c>
       <c r="N486">
-        <v>91.465</v>
+        <v>91.464</v>
       </c>
       <c r="O486">
         <v>85.815</v>
@@ -41557,7 +41029,7 @@
         <v>0</v>
       </c>
       <c r="N488">
-        <v>80.773</v>
+        <v>80.77200000000001</v>
       </c>
       <c r="O488">
         <v>26.867</v>
@@ -41889,7 +41361,7 @@
         <v>0</v>
       </c>
       <c r="N492">
-        <v>75.31</v>
+        <v>75.30999999999999</v>
       </c>
       <c r="O492">
         <v>20.08</v>
@@ -42138,7 +41610,7 @@
         <v>0</v>
       </c>
       <c r="N495">
-        <v>71.042</v>
+        <v>71.041</v>
       </c>
       <c r="O495">
         <v>21.213</v>
@@ -42387,7 +41859,7 @@
         <v>0</v>
       </c>
       <c r="N498">
-        <v>56.028</v>
+        <v>56.029</v>
       </c>
       <c r="O498">
         <v>14.275</v>
@@ -42553,7 +42025,7 @@
         <v>0</v>
       </c>
       <c r="N500">
-        <v>63.719</v>
+        <v>63.71899999999999</v>
       </c>
       <c r="O500">
         <v>26.92</v>
@@ -42636,7 +42108,7 @@
         <v>0</v>
       </c>
       <c r="N501">
-        <v>42.799</v>
+        <v>42.8</v>
       </c>
       <c r="O501">
         <v>5.99</v>
@@ -42725,7 +42197,7 @@
         <v>23.9</v>
       </c>
       <c r="P502">
-        <v>2.677</v>
+        <v>2.676</v>
       </c>
       <c r="Q502">
         <v>0.006</v>
@@ -42802,7 +42274,7 @@
         <v>0</v>
       </c>
       <c r="N503">
-        <v>57.658</v>
+        <v>57.65799999999999</v>
       </c>
       <c r="O503">
         <v>15.385</v>
@@ -43134,7 +42606,7 @@
         <v>0</v>
       </c>
       <c r="N507">
-        <v>50.937</v>
+        <v>50.936</v>
       </c>
       <c r="O507">
         <v>10.972</v>
@@ -43217,7 +42689,7 @@
         <v>0</v>
       </c>
       <c r="N508">
-        <v>51.471</v>
+        <v>51.47</v>
       </c>
       <c r="O508">
         <v>0.336</v>
@@ -43300,7 +42772,7 @@
         <v>0</v>
       </c>
       <c r="N509">
-        <v>93.717</v>
+        <v>93.71599999999999</v>
       </c>
       <c r="O509">
         <v>77.937</v>
@@ -43466,7 +42938,7 @@
         <v>0</v>
       </c>
       <c r="N511">
-        <v>75.405</v>
+        <v>75.40600000000001</v>
       </c>
       <c r="O511">
         <v>18.099</v>
@@ -43549,7 +43021,7 @@
         <v>0</v>
       </c>
       <c r="N512">
-        <v>90.13</v>
+        <v>90.131</v>
       </c>
       <c r="O512">
         <v>10.615</v>
@@ -43715,7 +43187,7 @@
         <v>0</v>
       </c>
       <c r="N514">
-        <v>79.246</v>
+        <v>79.245</v>
       </c>
       <c r="O514">
         <v>5.291</v>
@@ -43964,7 +43436,7 @@
         <v>0</v>
       </c>
       <c r="N517">
-        <v>77.41200000000001</v>
+        <v>77.41300000000001</v>
       </c>
       <c r="O517">
         <v>20.602</v>
@@ -44379,7 +43851,7 @@
         <v>0</v>
       </c>
       <c r="N522">
-        <v>78.621</v>
+        <v>78.62100000000001</v>
       </c>
       <c r="O522">
         <v>29.655</v>
@@ -44462,7 +43934,7 @@
         <v>0</v>
       </c>
       <c r="N523">
-        <v>90.852</v>
+        <v>90.851</v>
       </c>
       <c r="O523">
         <v>3.376</v>
@@ -44711,7 +44183,7 @@
         <v>10.836</v>
       </c>
       <c r="N526">
-        <v>75.10299999999999</v>
+        <v>75.10300000000001</v>
       </c>
       <c r="O526">
         <v>47.469</v>
@@ -44877,7 +44349,7 @@
         <v>10.929</v>
       </c>
       <c r="N528">
-        <v>83.497</v>
+        <v>83.49799999999999</v>
       </c>
       <c r="O528">
         <v>77.705</v>
@@ -44960,7 +44432,7 @@
         <v>0</v>
       </c>
       <c r="N529">
-        <v>73.276</v>
+        <v>73.277</v>
       </c>
       <c r="O529">
         <v>58.621</v>
@@ -45043,7 +44515,7 @@
         <v>0</v>
       </c>
       <c r="N530">
-        <v>85.792</v>
+        <v>85.791</v>
       </c>
       <c r="O530">
         <v>6.688</v>
@@ -45292,7 +44764,7 @@
         <v>0</v>
       </c>
       <c r="N533">
-        <v>74.419</v>
+        <v>74.41900000000001</v>
       </c>
       <c r="O533">
         <v>41.279</v>
@@ -45375,13 +44847,13 @@
         <v>0</v>
       </c>
       <c r="N534">
-        <v>90.80800000000001</v>
+        <v>90.80799999999999</v>
       </c>
       <c r="O534">
         <v>41.64</v>
       </c>
       <c r="P534">
-        <v>1.624</v>
+        <v>1.625</v>
       </c>
       <c r="Q534">
         <v>0.436</v>
@@ -45458,7 +44930,7 @@
         <v>0</v>
       </c>
       <c r="N535">
-        <v>66.667</v>
+        <v>66.666</v>
       </c>
       <c r="O535">
         <v>20.974</v>
@@ -45541,13 +45013,13 @@
         <v>0.032</v>
       </c>
       <c r="N536">
-        <v>69.30200000000001</v>
+        <v>69.303</v>
       </c>
       <c r="O536">
         <v>36.098</v>
       </c>
       <c r="P536">
-        <v>3.519</v>
+        <v>3.518</v>
       </c>
       <c r="Q536">
         <v>0.227</v>
@@ -45624,13 +45096,13 @@
         <v>0</v>
       </c>
       <c r="N537">
-        <v>89.02200000000001</v>
+        <v>89.02199999999999</v>
       </c>
       <c r="O537">
         <v>21.136</v>
       </c>
       <c r="P537">
-        <v>1.956</v>
+        <v>1.955</v>
       </c>
       <c r="Q537">
         <v>0.946</v>
